--- a/output/StructureDefinition-RecetaPrescripcionCl.xlsx
+++ b/output/StructureDefinition-RecetaPrescripcionCl.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9612" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9612" uniqueCount="1062">
   <si>
     <t>Path</t>
   </si>
@@ -484,7 +484,7 @@
 </t>
   </si>
   <si>
-    <t>tipo de identificación segun tabla</t>
+    <t>Tipo de identificación segun tabla</t>
   </si>
   <si>
     <t>Tipo de identificación segun tabla que debe ser levantada localmene en la cual se consideran 3 códigos: Local|Cheque|Grafica</t>
@@ -599,7 +599,7 @@
     <t>MedicationRequest.identifier.type.coding.code</t>
   </si>
   <si>
-    <t>valor del código que debe ser uno de los 3 Id Local| Id_Cheque| Id Receta Grafica, será normativo, se contempla en este primera etapa no levantar un EndPoint para validar esos códigos a modo de simplificar las implementaciones, por lo que la ruta *identification.type.system* no debiera ser considerada</t>
+    <t>Valor del código que debe ser uno de los 3 Id Local| Id_Cheque| Id Receta Grafica, será normativo, se contempla en este primera etapa no levantar un EndPoint para validar esos códigos a modo de simplificar las implementaciones, por lo que la ruta *identification.type.system* no debiera ser considerada</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -904,7 +904,7 @@
     <t>MedicationRequest.statusReason</t>
   </si>
   <si>
-    <t>Este dato es Obligatorio condicional a que haya un cambio de estado de la Receta (R2)... es la razon por la cual se cambia el estado de la receta</t>
+    <t>Este dato es Obligatorio condicional a que haya un cambio de estado de la Receta (R2)... es la razón por la cual se cambia el estado de la receta</t>
   </si>
   <si>
     <t>Captures the reason for the current state of the MedicationRequest.</t>
@@ -964,13 +964,13 @@
     <t>MedicationRequest.statusReason.coding.code</t>
   </si>
   <si>
-    <t>código relacionado al estado</t>
+    <t>Código relacionado al estado</t>
   </si>
   <si>
     <t>MedicationRequest.statusReason.coding.display</t>
   </si>
   <si>
-    <t>descripción del estado</t>
+    <t>Descripción del estado</t>
   </si>
   <si>
     <t>MedicationRequest.statusReason.coding.userSelected</t>
@@ -1074,7 +1074,7 @@
     <t>MedicationRequest.category.coding.code</t>
   </si>
   <si>
-    <t>código relacionado</t>
+    <t>Código relacionado</t>
   </si>
   <si>
     <t>MedicationRequest.category.coding.display</t>
@@ -1213,7 +1213,7 @@
     <t>MedicationRequest.medication[x].reference</t>
   </si>
   <si>
-    <t>url del recurso. Para el caso el repositorio se encuentra en ´https://api-receta.minsal.cl/v2/medication´</t>
+    <t>uri del recurso. Para el caso el repositorio se encuentra en ´https://api-receta.minsal.cl/v2/medication´</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x].type</t>
@@ -1225,7 +1225,7 @@
     <t>MedicationRequest.medication[x].display</t>
   </si>
   <si>
-    <t>descripción del fármaco</t>
+    <t>Descripción del fármaco</t>
   </si>
   <si>
     <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
@@ -1285,7 +1285,7 @@
     <t>MedicationRequest.subject.display</t>
   </si>
   <si>
-    <t>nombre paciente</t>
+    <t>Nombre paciente</t>
   </si>
   <si>
     <t>MedicationRequest.encounter</t>
@@ -1370,13 +1370,13 @@
 </t>
   </si>
   <si>
-    <t>referencia a un sujeto que prescribe</t>
+    <t>Referencia a un sujeto que prescribe</t>
   </si>
   <si>
     <t>En este caso la referencia será sobre una persona que es un prescriptor validado por la Super Intendecia</t>
   </si>
   <si>
-    <t>en una posterior versión evolutiva de la guía y el sistema de receta se deberá referenciar un ParactitionerRole</t>
+    <t>En una posterior versión evolutiva de la guía y el sistema de receta se deberá referenciar un ParactitionerRole</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -1394,7 +1394,7 @@
     <t>MedicationRequest.requester.reference</t>
   </si>
   <si>
-    <t>La API sobre la cual se hace consulta de los recursos de los prescriptores es ´https://api-receta.minsal.cl/v2/practitioner´</t>
+    <t>EndPoint sobre la cual se hace consulta de los recursos de los prescriptores es ´https://api-receta.minsal.cl/v2/practitioner´</t>
   </si>
   <si>
     <t>MedicationRequest.requester.type</t>
@@ -1406,7 +1406,7 @@
     <t>MedicationRequest.requester.display</t>
   </si>
   <si>
-    <t>nombre Prescriptor</t>
+    <t>Nombre Prescriptor</t>
   </si>
   <si>
     <t>MedicationRequest.performer</t>
@@ -1462,7 +1462,7 @@
 </t>
   </si>
   <si>
-    <t>referencia a un sujeto|organización para nuestro caso sera un sujeto, que será el que registra la receta</t>
+    <t>Referencia a un sujeto|organización para nuestro caso sera un sujeto, que será el que registra la receta</t>
   </si>
   <si>
     <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
@@ -1490,9 +1490,6 @@
   </si>
   <si>
     <t>MedicationRequest.recorder.display</t>
-  </si>
-  <si>
-    <t>Nombre Prescriptor</t>
   </si>
   <si>
     <t>MedicationRequest.reasonCode</t>
@@ -1600,7 +1597,7 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>Número identificador de grupo que debe ser el mismo con el cual se identificaron los farmacos prescritos en el acto clínico</t>
+    <t>Número identificador de grupo que debe ser el mismo con el cual se identificaron los farmacos prescritos en el acto clínico. Se genera como UUID</t>
   </si>
   <si>
     <t>Este numero vincula el contenedor (RequestGroup) con todos los farmacos prescritos durante la atención del paciente (medicationRequest). Este hará el uso de Receta y el grupo de farmacos co misma identificacion grupal. El formato debe ser UUID</t>
@@ -1648,7 +1645,7 @@
     <t>MedicationRequest.groupIdentifier.value</t>
   </si>
   <si>
-    <t>identificador de grupo</t>
+    <t>Identificador de grupo</t>
   </si>
   <si>
     <t>MedicationRequest.groupIdentifier.period</t>
@@ -1708,13 +1705,13 @@
     <t>MedicationRequest.courseOfTherapyType.coding.code</t>
   </si>
   <si>
-    <t>código relacionado continuo|agudo|temporada</t>
+    <t>Código relacionado continuous|acute|seasonal (Continuo, agudo o por temporada)</t>
   </si>
   <si>
     <t>MedicationRequest.courseOfTherapyType.coding.display</t>
   </si>
   <si>
-    <t>descripción del código</t>
+    <t>Descripción del código</t>
   </si>
   <si>
     <t>MedicationRequest.courseOfTherapyType.coding.userSelected</t>
@@ -1749,7 +1746,7 @@
 </t>
   </si>
   <si>
-    <t>texto libre en donde se expresan las instrucciones de como el medicamento debe ser administrado</t>
+    <t>Texto libre en donde se expresan las instrucciones de como el medicamento debe ser administrado</t>
   </si>
   <si>
     <t>Información adicional sobre la prescripción que no puede ser transmitida por los otros atributos.</t>
@@ -1771,7 +1768,7 @@
 </t>
   </si>
   <si>
-    <t>instrucciones del dosaje del medicamento</t>
+    <t>Instrucciones del dosaje del medicamento</t>
   </si>
   <si>
     <t>Indica cómo debe utilizar el paciente el medicamento.</t>
@@ -1837,7 +1834,7 @@
     <t>MedicationRequest.dosageInstruction.text</t>
   </si>
   <si>
-    <t>instucciones en texto libre</t>
+    <t>Instucciones en texto libre</t>
   </si>
   <si>
     <t>Free text dosage instructions e.g. SIG.</t>
@@ -1882,7 +1879,7 @@
     <t>MedicationRequest.dosageInstruction.patientInstruction</t>
   </si>
   <si>
-    <t>instrucciones adicionales orientadas al paciente</t>
+    <t>Instrucciones adicionales orientadas al paciente</t>
   </si>
   <si>
     <t>Instructions in terms that are understood by the patient or consumer.</t>
@@ -1950,7 +1947,7 @@
 </t>
   </si>
   <si>
-    <t>repetitividad en la administración del medicamento</t>
+    <t>Repetitividad en la administración del medicamento</t>
   </si>
   <si>
     <t>A set of rules that describe when the event is scheduled.</t>
@@ -2092,10 +2089,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.frequency</t>
   </si>
   <si>
-    <t>cantidad de repeticiones</t>
-  </si>
-  <si>
-    <t>The number of times to repeat the action within the specified period. If frequencyMax is present, this element indicates the lower bound of the allowed range of the frequency.</t>
+    <t>Cantidad de repeticiones</t>
   </si>
   <si>
     <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
@@ -2119,10 +2113,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.period</t>
   </si>
   <si>
-    <t>periodo en el cual se realizan las repeticiones</t>
-  </si>
-  <si>
-    <t>Indicates the duration of time over which repetitions are to occur; e.g. to express "3 times per day", 3 would be the frequency and "1 day" would be the period. If periodMax is present, this element indicates the lower bound of the allowed range of the period length.</t>
+    <t>Período en el cual se realizan las repeticiones</t>
   </si>
   <si>
     <t>Timing.repeat.period</t>
@@ -2131,10 +2122,7 @@
     <t>MedicationRequest.dosageInstruction.timing.repeat.periodMax</t>
   </si>
   <si>
-    <t>periodo máximo en el cual se realizan las repeticiones</t>
-  </si>
-  <si>
-    <t>If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
+    <t>Periodo máximo en el cual se realizan las repeticiones</t>
   </si>
   <si>
     <t>Timing.repeat.periodMax</t>
@@ -2144,9 +2132,6 @@
   </si>
   <si>
     <t>s | min | h | d | wk | mo | a - unidad de tiempo (UCUM) (Requerida)</t>
-  </si>
-  <si>
-    <t>The units of time for the period in UCUM units.</t>
   </si>
   <si>
     <t>Timing.repeat.periodUnit</t>
@@ -2283,7 +2268,10 @@
     <t>asNeededBoolean</t>
   </si>
   <si>
-    <t>En caso de SOS, se usa, considerar este xxvalor como booleano</t>
+    <t>Se define para uso de fármaco sin receta o indicación en esta.</t>
+  </si>
+  <si>
+    <t>Para indicar si el fármaco se puede usar sin respetar diretamente lo presctito en el dosaje, como por ejemplo medicamentos que se pueden usar en caso de SOS</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.site</t>
@@ -2322,7 +2310,7 @@
     <t>via por la cual es administrado el medicamento</t>
   </si>
   <si>
-    <t>How drug should enter body.</t>
+    <t>Vía por la cual es administrado el medicamento</t>
   </si>
   <si>
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
@@ -2373,15 +2361,12 @@
     <t>MedicationRequest.dosageInstruction.route.coding.code</t>
   </si>
   <si>
-    <t>código de la via de Snomed</t>
+    <t>Código de la via de Snomed</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.display</t>
   </si>
   <si>
-    <t>descripcióncipón del código</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.coding.userSelected</t>
   </si>
   <si>
@@ -2421,10 +2406,10 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate</t>
   </si>
   <si>
-    <t>cantidad de medicamento administrado puede ser Cantidad o Rango</t>
-  </si>
-  <si>
-    <t>The amount of medication administered.</t>
+    <t>Cantidad de medicamento administrado puede ser Cantidad o Rango</t>
+  </si>
+  <si>
+    <t>Cantidad de medicamento administrado puede ser Cantidad o Rango, solo se puede usar uno de ellos en el Dosaje</t>
   </si>
   <si>
     <t>Dosage.doseAndRate</t>
@@ -2523,10 +2508,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].value</t>
   </si>
   <si>
-    <t>valor de la cantidad a administrar</t>
-  </si>
-  <si>
-    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+    <t>Valor de la cantidad a administrar</t>
   </si>
   <si>
     <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
@@ -2577,10 +2559,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].unit</t>
   </si>
   <si>
-    <t>unidad de la cantidad administrada</t>
-  </si>
-  <si>
-    <t>A human-readable form of the unit.</t>
+    <t>Unidad de la cantidad administrada</t>
   </si>
   <si>
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
@@ -2598,16 +2577,10 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].system</t>
   </si>
   <si>
-    <t xml:space="preserve">se usa el sistema de códigos de Minsal </t>
-  </si>
-  <si>
-    <t>The identification of the system that provides the coded form of the unit.</t>
+    <t xml:space="preserve">Se definirá mas adelante </t>
   </si>
   <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>https://receta.minsal.gob.cl/v1/CodeSystemUnidadAsistencial/</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -2623,10 +2596,10 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].code</t>
   </si>
   <si>
-    <t>código para el tipo de forma del fármaco</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
+    <t>Código para el tipo de forma del fármaco</t>
+  </si>
+  <si>
+    <t>Código para el tipo de forma del fármaco, este en principio no será validado estará dado en la Norma Técnica</t>
   </si>
   <si>
     <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
@@ -2678,7 +2651,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].low.value</t>
   </si>
   <si>
-    <t>valor mínimo del rango</t>
+    <t>Valor mínimo del rango</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].low.comparator</t>
@@ -2690,13 +2663,7 @@
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].low.system</t>
   </si>
   <si>
-    <t xml:space="preserve">se usa el sistema de códigos de MINSAL </t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].low.code</t>
-  </si>
-  <si>
-    <t>código parael tipo de forma del fármaco</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate.dose[x].high</t>
@@ -2927,10 +2894,7 @@
     <t>MedicationRequest.dispenseRequest.validityPeriod</t>
   </si>
   <si>
-    <t>periodo de validez de la Prescripción</t>
-  </si>
-  <si>
-    <t>This indicates the validity period of a prescription (stale dating the Prescription).</t>
+    <t>Periodo de validez de la Prescripción</t>
   </si>
   <si>
     <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
@@ -2954,10 +2918,7 @@
     <t>MedicationRequest.dispenseRequest.validityPeriod.start</t>
   </si>
   <si>
-    <t>fecha de inicio de la validez de la prescripción. El formato es YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>The start of the period. The boundary is inclusive.</t>
+    <t>Fecha de inicio de la validez de la prescripción. El formato es YYYY-MM-DD</t>
   </si>
   <si>
     <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
@@ -2976,10 +2937,7 @@
     <t>MedicationRequest.dispenseRequest.validityPeriod.end</t>
   </si>
   <si>
-    <t>fecha de fin de la validez de la prescripción. El formato es YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
+    <t>Fecha de fin de la validez de la prescripción. El formato es YYYY-MM-DD</t>
   </si>
   <si>
     <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has an end value of 2012-02-03.</t>
@@ -3060,22 +3018,31 @@
     <t>Unit representation</t>
   </si>
   <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.quantity.system</t>
   </si>
   <si>
     <t>System that defines coded unit form</t>
   </si>
   <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.quantity.code</t>
   </si>
   <si>
     <t>Coded form of the unit</t>
   </si>
   <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
   </si>
   <si>
-    <t>numero de días que dura lo que se ha dispensado</t>
+    <t>Número de días que dura lo que se ha dispensado</t>
   </si>
   <si>
     <t>Identifies the period time over which the supplied product is expected to be used, or the length of time the dispense is expected to last.</t>
@@ -3099,7 +3066,7 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.value</t>
   </si>
   <si>
-    <t>valor de la unidad de duracion</t>
+    <t>Valor de la unidad de duracion</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.comparator</t>
@@ -3111,13 +3078,13 @@
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.unit</t>
   </si>
   <si>
-    <t>unidad temporal segun UCUM</t>
+    <t>Unidad temporal segun UCUM</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration.system</t>
   </si>
   <si>
-    <t>sistema de códigos temprales segun UCUM</t>
+    <t>Sistema de códigos temprales segun UCUM</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -3251,10 +3218,7 @@
 </t>
   </si>
   <si>
-    <t>prescripciónu orden a la cual esta reemplaza</t>
-  </si>
-  <si>
-    <t>A link to a resource representing an earlier order related order or prescription.</t>
+    <t>Prescripciónu orden a la cual esta reemplaza</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -3272,7 +3236,7 @@
     <t>MedicationRequest.priorPrescription.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">recurso MedicationDispense que se reemplaza. </t>
+    <t xml:space="preserve">Recurso MedicationDispense que se reemplaza. </t>
   </si>
   <si>
     <t>MedicationRequest.priorPrescription.type</t>
@@ -14834,7 +14798,7 @@
         <v>54</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>388</v>
@@ -14922,7 +14886,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14948,13 +14912,13 @@
         <v>148</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14983,11 +14947,11 @@
         <v>289</v>
       </c>
       <c r="X101" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="Y101" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="Y101" t="s" s="2">
-        <v>479</v>
-      </c>
       <c r="Z101" t="s" s="2">
         <v>44</v>
       </c>
@@ -15004,7 +14968,7 @@
         <v>44</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>42</v>
@@ -15019,24 +14983,24 @@
         <v>64</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="AK101" t="s" s="2">
+      <c r="AL101" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AL101" t="s" s="2">
+      <c r="AM101" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AN101" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -15059,16 +15023,16 @@
         <v>44</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -15118,7 +15082,7 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -15133,16 +15097,16 @@
         <v>64</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>44</v>
@@ -15150,7 +15114,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -15173,13 +15137,13 @@
         <v>53</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -15230,7 +15194,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -15245,13 +15209,13 @@
         <v>64</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>44</v>
@@ -15262,7 +15226,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15288,10 +15252,10 @@
         <v>66</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -15342,7 +15306,7 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -15363,7 +15327,7 @@
         <v>44</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>44</v>
@@ -15374,7 +15338,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15397,13 +15361,13 @@
         <v>53</v>
       </c>
       <c r="J105" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K105" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="K105" t="s" s="2">
+      <c r="L105" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -15454,7 +15418,7 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -15469,13 +15433,13 @@
         <v>64</v>
       </c>
       <c r="AJ105" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>44</v>
@@ -15486,7 +15450,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15512,16 +15476,16 @@
         <v>118</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>44</v>
@@ -15570,7 +15534,7 @@
         <v>44</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -15585,13 +15549,13 @@
         <v>64</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>44</v>
@@ -15602,7 +15566,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15714,7 +15678,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15828,7 +15792,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15944,7 +15908,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15970,10 +15934,10 @@
         <v>148</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>151</v>
@@ -16060,7 +16024,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -16086,10 +16050,10 @@
         <v>66</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>220</v>
@@ -16176,7 +16140,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -16202,7 +16166,7 @@
         <v>54</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>228</v>
@@ -16290,7 +16254,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -16402,7 +16366,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16516,7 +16480,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16542,13 +16506,13 @@
         <v>148</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -16577,11 +16541,11 @@
         <v>289</v>
       </c>
       <c r="X115" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="Y115" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="Y115" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="Z115" t="s" s="2">
         <v>44</v>
       </c>
@@ -16598,7 +16562,7 @@
         <v>44</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>42</v>
@@ -16619,7 +16583,7 @@
         <v>44</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>44</v>
@@ -16630,7 +16594,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16742,7 +16706,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16856,7 +16820,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16972,7 +16936,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -17084,7 +17048,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -17198,7 +17162,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17224,7 +17188,7 @@
         <v>66</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>301</v>
@@ -17243,7 +17207,7 @@
         <v>44</v>
       </c>
       <c r="R121" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>44</v>
@@ -17314,7 +17278,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17428,7 +17392,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -17454,7 +17418,7 @@
         <v>72</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>188</v>
@@ -17542,7 +17506,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17568,7 +17532,7 @@
         <v>54</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L124" t="s" s="2">
         <v>195</v>
@@ -17656,7 +17620,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17772,7 +17736,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17888,7 +17852,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17911,13 +17875,13 @@
         <v>44</v>
       </c>
       <c r="J127" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="K127" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="K127" t="s" s="2">
+      <c r="L127" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -17968,7 +17932,7 @@
         <v>44</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>42</v>
@@ -17983,13 +17947,13 @@
         <v>64</v>
       </c>
       <c r="AJ127" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL127" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>44</v>
@@ -18000,7 +17964,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -18023,13 +17987,13 @@
         <v>44</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K128" t="s" s="2">
+      <c r="L128" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -18080,7 +18044,7 @@
         <v>44</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>42</v>
@@ -18095,13 +18059,13 @@
         <v>64</v>
       </c>
       <c r="AJ128" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AK128" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AK128" t="s" s="2">
+      <c r="AL128" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>44</v>
@@ -18112,7 +18076,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -18135,16 +18099,16 @@
         <v>44</v>
       </c>
       <c r="J129" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="K129" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="K129" t="s" s="2">
+      <c r="L129" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -18194,7 +18158,7 @@
         <v>44</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>42</v>
@@ -18209,13 +18173,13 @@
         <v>64</v>
       </c>
       <c r="AJ129" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL129" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>44</v>
@@ -18226,7 +18190,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18338,7 +18302,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18452,11 +18416,11 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -18478,10 +18442,10 @@
         <v>97</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>113</v>
@@ -18536,7 +18500,7 @@
         <v>44</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>42</v>
@@ -18568,7 +18532,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18591,17 +18555,17 @@
         <v>53</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>44</v>
@@ -18650,7 +18614,7 @@
         <v>44</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>42</v>
@@ -18671,18 +18635,18 @@
         <v>44</v>
       </c>
       <c r="AL133" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN133" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>583</v>
       </c>
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18708,14 +18672,14 @@
         <v>54</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>44</v>
@@ -18764,7 +18728,7 @@
         <v>44</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>42</v>
@@ -18785,18 +18749,18 @@
         <v>44</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18822,16 +18786,16 @@
         <v>148</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>44</v>
@@ -18859,28 +18823,28 @@
         <v>289</v>
       </c>
       <c r="X135" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Y135" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="Y135" t="s" s="2">
+      <c r="Z135" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE135" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>42</v>
@@ -18901,18 +18865,18 @@
         <v>44</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18938,10 +18902,10 @@
         <v>54</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
@@ -18992,7 +18956,7 @@
         <v>44</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>42</v>
@@ -19013,18 +18977,18 @@
         <v>44</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -19047,19 +19011,19 @@
         <v>53</v>
       </c>
       <c r="J137" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="K137" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="K137" t="s" s="2">
+      <c r="L137" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>44</v>
@@ -19108,7 +19072,7 @@
         <v>44</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>42</v>
@@ -19129,7 +19093,7 @@
         <v>44</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>44</v>
@@ -19140,7 +19104,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19252,7 +19216,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19366,11 +19330,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19392,10 +19356,10 @@
         <v>97</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="M140" t="s" s="2">
         <v>113</v>
@@ -19450,7 +19414,7 @@
         <v>44</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>42</v>
@@ -19482,7 +19446,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19508,14 +19472,14 @@
         <v>423</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>44</v>
@@ -19564,7 +19528,7 @@
         <v>44</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>42</v>
@@ -19585,7 +19549,7 @@
         <v>44</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>44</v>
@@ -19596,7 +19560,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19619,17 +19583,17 @@
         <v>53</v>
       </c>
       <c r="J142" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="K142" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="K142" t="s" s="2">
+      <c r="L142" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>44</v>
@@ -19678,28 +19642,28 @@
         <v>44</v>
       </c>
       <c r="AE142" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI142" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="AF142" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI142" t="s" s="2">
+      <c r="AJ142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL142" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>44</v>
@@ -19710,7 +19674,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19822,7 +19786,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19936,7 +19900,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19959,13 +19923,13 @@
         <v>53</v>
       </c>
       <c r="J145" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="K145" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="K145" t="s" s="2">
+      <c r="L145" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -20016,7 +19980,7 @@
         <v>44</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>42</v>
@@ -20037,7 +20001,7 @@
         <v>44</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>44</v>
@@ -20048,7 +20012,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -20071,19 +20035,19 @@
         <v>53</v>
       </c>
       <c r="J146" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="K146" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="K146" t="s" s="2">
+      <c r="L146" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>44</v>
@@ -20132,7 +20096,7 @@
         <v>44</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>42</v>
@@ -20153,7 +20117,7 @@
         <v>44</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>44</v>
@@ -20164,7 +20128,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -20187,13 +20151,13 @@
         <v>53</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -20244,7 +20208,7 @@
         <v>44</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>42</v>
@@ -20265,7 +20229,7 @@
         <v>44</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>44</v>
@@ -20276,7 +20240,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -20299,19 +20263,19 @@
         <v>53</v>
       </c>
       <c r="J148" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="K148" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="K148" t="s" s="2">
+      <c r="L148" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>44</v>
@@ -20360,7 +20324,7 @@
         <v>44</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>42</v>
@@ -20381,7 +20345,7 @@
         <v>44</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM148" t="s" s="2">
         <v>44</v>
@@ -20392,7 +20356,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20415,19 +20379,19 @@
         <v>53</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="L149" t="s" s="2">
-        <v>658</v>
-      </c>
       <c r="M149" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>44</v>
@@ -20476,7 +20440,7 @@
         <v>44</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>42</v>
@@ -20497,7 +20461,7 @@
         <v>44</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>44</v>
@@ -20508,7 +20472,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20534,10 +20498,10 @@
         <v>72</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>661</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -20567,28 +20531,28 @@
         <v>142</v>
       </c>
       <c r="X150" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="Y150" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="Y150" t="s" s="2">
+      <c r="Z150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE150" t="s" s="2">
         <v>664</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>665</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>42</v>
@@ -20609,7 +20573,7 @@
         <v>44</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>44</v>
@@ -20620,7 +20584,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20643,13 +20607,13 @@
         <v>53</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -20657,7 +20621,7 @@
         <v>44</v>
       </c>
       <c r="P151" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="Q151" t="s" s="2">
         <v>44</v>
@@ -20702,7 +20666,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -20723,7 +20687,7 @@
         <v>44</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>44</v>
@@ -20734,7 +20698,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20757,13 +20721,13 @@
         <v>53</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -20814,7 +20778,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -20835,7 +20799,7 @@
         <v>44</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>44</v>
@@ -20846,7 +20810,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20869,13 +20833,13 @@
         <v>53</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -20926,7 +20890,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -20947,7 +20911,7 @@
         <v>44</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>44</v>
@@ -20958,7 +20922,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20981,13 +20945,13 @@
         <v>53</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -21038,7 +21002,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -21059,7 +21023,7 @@
         <v>44</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>44</v>
@@ -21070,7 +21034,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21096,10 +21060,10 @@
         <v>72</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -21129,11 +21093,11 @@
         <v>142</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>663</v>
       </c>
-      <c r="Y155" t="s" s="2">
-        <v>664</v>
-      </c>
       <c r="Z155" t="s" s="2">
         <v>44</v>
       </c>
@@ -21150,7 +21114,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -21171,7 +21135,7 @@
         <v>44</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>44</v>
@@ -21182,7 +21146,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -21208,13 +21172,13 @@
         <v>72</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -21244,7 +21208,7 @@
       </c>
       <c r="X156" s="2"/>
       <c r="Y156" t="s" s="2">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>44</v>
@@ -21262,7 +21226,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -21294,7 +21258,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21317,16 +21281,16 @@
         <v>53</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -21376,7 +21340,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -21408,7 +21372,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21434,16 +21398,16 @@
         <v>72</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -21471,10 +21435,10 @@
         <v>142</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>44</v>
@@ -21492,7 +21456,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -21513,7 +21477,7 @@
         <v>44</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>44</v>
@@ -21524,7 +21488,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21547,13 +21511,13 @@
         <v>53</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -21604,7 +21568,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -21625,7 +21589,7 @@
         <v>44</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>44</v>
@@ -21636,7 +21600,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21662,13 +21626,13 @@
         <v>148</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -21697,10 +21661,10 @@
         <v>76</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>44</v>
@@ -21718,7 +21682,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -21739,7 +21703,7 @@
         <v>44</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>44</v>
@@ -21750,7 +21714,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21776,13 +21740,13 @@
         <v>201</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -21830,7 +21794,7 @@
         <v>370</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -21851,21 +21815,21 @@
         <v>44</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C162" t="s" s="2">
         <v>44</v>
@@ -21890,13 +21854,13 @@
         <v>201</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21946,7 +21910,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -21967,18 +21931,18 @@
         <v>44</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -22004,16 +21968,16 @@
         <v>148</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>44</v>
@@ -22041,10 +22005,10 @@
         <v>289</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>44</v>
@@ -22062,7 +22026,7 @@
         <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -22083,18 +22047,18 @@
         <v>44</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22120,14 +22084,14 @@
         <v>148</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>44</v>
@@ -22155,10 +22119,10 @@
         <v>289</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>44</v>
@@ -22176,7 +22140,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -22197,18 +22161,18 @@
         <v>44</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -22320,7 +22284,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22434,7 +22398,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22550,7 +22514,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22662,7 +22626,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22776,7 +22740,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22802,10 +22766,10 @@
         <v>66</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>301</v>
+        <v>753</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>302</v>
@@ -22821,7 +22785,7 @@
         <v>44</v>
       </c>
       <c r="R170" t="s" s="2">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="S170" t="s" s="2">
         <v>44</v>
@@ -22892,7 +22856,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -23006,7 +22970,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -23032,10 +22996,10 @@
         <v>72</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>188</v>
+        <v>757</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
@@ -23120,7 +23084,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23146,10 +23110,10 @@
         <v>54</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>763</v>
+        <v>545</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>195</v>
+        <v>545</v>
       </c>
       <c r="M173" s="2"/>
       <c r="N173" t="s" s="2">
@@ -23234,7 +23198,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23350,7 +23314,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23466,7 +23430,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23492,16 +23456,16 @@
         <v>148</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>44</v>
@@ -23529,10 +23493,10 @@
         <v>289</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>44</v>
@@ -23550,7 +23514,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -23571,18 +23535,18 @@
         <v>44</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23605,13 +23569,13 @@
         <v>53</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -23662,7 +23626,7 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
@@ -23689,12 +23653,12 @@
         <v>44</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23806,7 +23770,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23920,7 +23884,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23946,14 +23910,14 @@
         <v>148</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>44</v>
@@ -23981,10 +23945,10 @@
         <v>289</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="Z180" t="s" s="2">
         <v>44</v>
@@ -24002,7 +23966,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -24029,12 +23993,12 @@
         <v>44</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -24057,19 +24021,19 @@
         <v>53</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>44</v>
@@ -24116,7 +24080,7 @@
         <v>370</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
@@ -24137,21 +24101,21 @@
         <v>44</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C182" t="s" s="2">
         <v>44</v>
@@ -24173,19 +24137,19 @@
         <v>44</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>44</v>
@@ -24234,7 +24198,7 @@
         <v>44</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
@@ -24246,7 +24210,7 @@
         <v>108</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>44</v>
@@ -24255,18 +24219,18 @@
         <v>44</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24378,7 +24342,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24492,7 +24456,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24515,19 +24479,19 @@
         <v>53</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -24576,7 +24540,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -24597,18 +24561,18 @@
         <v>44</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24634,20 +24598,20 @@
         <v>72</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="M186" s="2"/>
       <c r="N186" t="s" s="2">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P186" t="s" s="2">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="Q186" t="s" s="2">
         <v>44</v>
@@ -24671,10 +24635,10 @@
         <v>142</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>44</v>
@@ -24692,7 +24656,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -24713,18 +24677,18 @@
         <v>44</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24750,14 +24714,14 @@
         <v>54</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -24806,7 +24770,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -24827,18 +24791,18 @@
         <v>44</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24864,14 +24828,14 @@
         <v>66</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>44</v>
@@ -24881,7 +24845,7 @@
         <v>44</v>
       </c>
       <c r="R188" t="s" s="2">
-        <v>838</v>
+        <v>44</v>
       </c>
       <c r="S188" t="s" s="2">
         <v>44</v>
@@ -24920,7 +24884,7 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
@@ -24929,7 +24893,7 @@
         <v>52</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="AI188" t="s" s="2">
         <v>64</v>
@@ -24941,18 +24905,18 @@
         <v>44</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24978,16 +24942,16 @@
         <v>72</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>44</v>
@@ -25036,7 +25000,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -25057,21 +25021,21 @@
         <v>44</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="C190" t="s" s="2">
         <v>44</v>
@@ -25093,19 +25057,19 @@
         <v>53</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>44</v>
@@ -25154,7 +25118,7 @@
         <v>44</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
@@ -25175,18 +25139,18 @@
         <v>44</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25298,7 +25262,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25412,7 +25376,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25435,16 +25399,16 @@
         <v>53</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
@@ -25494,7 +25458,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>42</v>
@@ -25515,18 +25479,18 @@
         <v>44</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>857</v>
+        <v>848</v>
       </c>
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25638,7 +25602,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25752,7 +25716,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25775,19 +25739,19 @@
         <v>53</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>44</v>
@@ -25836,7 +25800,7 @@
         <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
@@ -25857,18 +25821,18 @@
         <v>44</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25894,20 +25858,20 @@
         <v>72</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P197" t="s" s="2">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="Q197" t="s" s="2">
         <v>44</v>
@@ -25931,10 +25895,10 @@
         <v>142</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>44</v>
@@ -25952,7 +25916,7 @@
         <v>44</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -25973,18 +25937,18 @@
         <v>44</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -26010,14 +25974,14 @@
         <v>54</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>44</v>
@@ -26066,7 +26030,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>42</v>
@@ -26087,18 +26051,18 @@
         <v>44</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26124,14 +26088,14 @@
         <v>66</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>865</v>
+        <v>828</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>44</v>
@@ -26141,7 +26105,7 @@
         <v>44</v>
       </c>
       <c r="R199" t="s" s="2">
-        <v>838</v>
+        <v>44</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>44</v>
@@ -26180,7 +26144,7 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
@@ -26189,7 +26153,7 @@
         <v>52</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="AI199" t="s" s="2">
         <v>64</v>
@@ -26201,18 +26165,18 @@
         <v>44</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26238,16 +26202,16 @@
         <v>72</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>44</v>
@@ -26296,7 +26260,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -26317,18 +26281,18 @@
         <v>44</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -26351,16 +26315,16 @@
         <v>53</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
@@ -26410,7 +26374,7 @@
         <v>44</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>42</v>
@@ -26431,18 +26395,18 @@
         <v>44</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>874</v>
+        <v>863</v>
       </c>
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26554,7 +26518,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26668,7 +26632,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26691,19 +26655,19 @@
         <v>53</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>44</v>
@@ -26752,7 +26716,7 @@
         <v>44</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>42</v>
@@ -26773,18 +26737,18 @@
         <v>44</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="AM204" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26810,20 +26774,20 @@
         <v>72</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P205" t="s" s="2">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="Q205" t="s" s="2">
         <v>44</v>
@@ -26847,10 +26811,10 @@
         <v>142</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>44</v>
@@ -26868,7 +26832,7 @@
         <v>44</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>42</v>
@@ -26889,18 +26853,18 @@
         <v>44</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26926,14 +26890,14 @@
         <v>54</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="M206" s="2"/>
       <c r="N206" t="s" s="2">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>44</v>
@@ -26982,7 +26946,7 @@
         <v>44</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>42</v>
@@ -27003,18 +26967,18 @@
         <v>44</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27040,14 +27004,14 @@
         <v>66</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>865</v>
+        <v>828</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="M207" s="2"/>
       <c r="N207" t="s" s="2">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>44</v>
@@ -27057,7 +27021,7 @@
         <v>44</v>
       </c>
       <c r="R207" t="s" s="2">
-        <v>838</v>
+        <v>44</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>44</v>
@@ -27096,7 +27060,7 @@
         <v>44</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>42</v>
@@ -27105,7 +27069,7 @@
         <v>52</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>64</v>
@@ -27117,18 +27081,18 @@
         <v>44</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -27154,16 +27118,16 @@
         <v>72</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>44</v>
@@ -27212,7 +27176,7 @@
         <v>44</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>42</v>
@@ -27233,18 +27197,18 @@
         <v>44</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -27267,19 +27231,19 @@
         <v>53</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>44</v>
@@ -27328,7 +27292,7 @@
         <v>44</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>42</v>
@@ -27349,18 +27313,18 @@
         <v>44</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>890</v>
+        <v>879</v>
       </c>
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -27383,19 +27347,19 @@
         <v>53</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>44</v>
@@ -27444,7 +27408,7 @@
         <v>44</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>42</v>
@@ -27465,18 +27429,18 @@
         <v>44</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27499,19 +27463,19 @@
         <v>53</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>44</v>
@@ -27560,7 +27524,7 @@
         <v>44</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>42</v>
@@ -27581,7 +27545,7 @@
         <v>44</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>44</v>
@@ -27592,7 +27556,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27615,17 +27579,17 @@
         <v>53</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>44</v>
@@ -27674,7 +27638,7 @@
         <v>44</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>42</v>
@@ -27695,7 +27659,7 @@
         <v>44</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="AM212" t="s" s="2">
         <v>44</v>
@@ -27706,7 +27670,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27729,13 +27693,13 @@
         <v>44</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -27786,7 +27750,7 @@
         <v>44</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>42</v>
@@ -27804,10 +27768,10 @@
         <v>44</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="AM213" t="s" s="2">
         <v>44</v>
@@ -27818,7 +27782,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27930,7 +27894,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -28044,11 +28008,11 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -28070,10 +28034,10 @@
         <v>97</v>
       </c>
       <c r="K216" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L216" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>113</v>
@@ -28128,7 +28092,7 @@
         <v>44</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>42</v>
@@ -28160,7 +28124,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28183,16 +28147,16 @@
         <v>44</v>
       </c>
       <c r="J217" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="K217" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="L217" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="M217" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="K217" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="L217" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" t="s" s="2">
@@ -28242,7 +28206,7 @@
         <v>44</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>42</v>
@@ -28263,7 +28227,7 @@
         <v>44</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>44</v>
@@ -28274,7 +28238,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -28386,7 +28350,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -28500,11 +28464,11 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -28526,10 +28490,10 @@
         <v>97</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="M220" t="s" s="2">
         <v>113</v>
@@ -28584,7 +28548,7 @@
         <v>44</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>42</v>
@@ -28616,7 +28580,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28639,13 +28603,13 @@
         <v>44</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" s="2"/>
@@ -28696,7 +28660,7 @@
         <v>44</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>42</v>
@@ -28717,7 +28681,7 @@
         <v>44</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>44</v>
@@ -28728,7 +28692,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28751,13 +28715,13 @@
         <v>44</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" s="2"/>
@@ -28808,7 +28772,7 @@
         <v>44</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>42</v>
@@ -28829,7 +28793,7 @@
         <v>44</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>44</v>
@@ -28840,7 +28804,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28863,13 +28827,13 @@
         <v>44</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" s="2"/>
@@ -28920,7 +28884,7 @@
         <v>44</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>42</v>
@@ -28941,7 +28905,7 @@
         <v>44</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>44</v>
@@ -28952,7 +28916,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28978,16 +28942,16 @@
         <v>235</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>44</v>
@@ -29036,7 +29000,7 @@
         <v>44</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>42</v>
@@ -29054,10 +29018,10 @@
         <v>44</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>44</v>
@@ -29068,7 +29032,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29180,7 +29144,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -29294,7 +29258,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -29320,13 +29284,13 @@
         <v>423</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" t="s" s="2">
@@ -29376,7 +29340,7 @@
         <v>44</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>42</v>
@@ -29385,7 +29349,7 @@
         <v>52</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>64</v>
@@ -29397,18 +29361,18 @@
         <v>44</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>956</v>
+        <v>943</v>
       </c>
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -29434,20 +29398,20 @@
         <v>423</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P228" t="s" s="2">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="Q228" t="s" s="2">
         <v>44</v>
@@ -29492,7 +29456,7 @@
         <v>44</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>962</v>
+        <v>948</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>42</v>
@@ -29501,7 +29465,7 @@
         <v>52</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>64</v>
@@ -29513,18 +29477,18 @@
         <v>44</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="AM228" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN228" t="s" s="2">
-        <v>963</v>
+        <v>949</v>
       </c>
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29547,16 +29511,16 @@
         <v>44</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
@@ -29606,7 +29570,7 @@
         <v>44</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>964</v>
+        <v>950</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>42</v>
@@ -29624,21 +29588,21 @@
         <v>44</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>969</v>
+        <v>955</v>
       </c>
       <c r="AM229" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN229" t="s" s="2">
-        <v>970</v>
+        <v>956</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29661,13 +29625,13 @@
         <v>44</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>973</v>
+        <v>959</v>
       </c>
       <c r="M230" s="2"/>
       <c r="N230" s="2"/>
@@ -29718,7 +29682,7 @@
         <v>44</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>42</v>
@@ -29736,21 +29700,21 @@
         <v>44</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>976</v>
+        <v>962</v>
       </c>
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29862,7 +29826,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29976,7 +29940,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29999,19 +29963,19 @@
         <v>53</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>44</v>
@@ -30060,7 +30024,7 @@
         <v>44</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>42</v>
@@ -30081,18 +30045,18 @@
         <v>44</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30118,20 +30082,20 @@
         <v>72</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="M234" s="2"/>
       <c r="N234" t="s" s="2">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P234" t="s" s="2">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="Q234" t="s" s="2">
         <v>44</v>
@@ -30155,10 +30119,10 @@
         <v>142</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>44</v>
@@ -30176,7 +30140,7 @@
         <v>44</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>42</v>
@@ -30197,18 +30161,18 @@
         <v>44</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -30234,14 +30198,14 @@
         <v>54</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>829</v>
+        <v>972</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" t="s" s="2">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>44</v>
@@ -30290,7 +30254,7 @@
         <v>44</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>42</v>
@@ -30311,18 +30275,18 @@
         <v>44</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN235" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -30348,14 +30312,14 @@
         <v>66</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>836</v>
+        <v>975</v>
       </c>
       <c r="M236" s="2"/>
       <c r="N236" t="s" s="2">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>44</v>
@@ -30404,7 +30368,7 @@
         <v>44</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>42</v>
@@ -30413,7 +30377,7 @@
         <v>52</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="AI236" t="s" s="2">
         <v>64</v>
@@ -30425,18 +30389,18 @@
         <v>44</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN236" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -30462,16 +30426,16 @@
         <v>72</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>844</v>
+        <v>978</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="N237" t="s" s="2">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>44</v>
@@ -30520,7 +30484,7 @@
         <v>44</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>42</v>
@@ -30541,18 +30505,18 @@
         <v>44</v>
       </c>
       <c r="AL237" t="s" s="2">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="AM237" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN237" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30575,16 +30539,16 @@
         <v>44</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
@@ -30634,7 +30598,7 @@
         <v>44</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>42</v>
@@ -30652,10 +30616,10 @@
         <v>44</v>
       </c>
       <c r="AK238" t="s" s="2">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>44</v>
@@ -30666,7 +30630,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30778,7 +30742,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30892,7 +30856,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30915,19 +30879,19 @@
         <v>53</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>811</v>
+        <v>988</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>44</v>
@@ -30976,7 +30940,7 @@
         <v>44</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>42</v>
@@ -30997,18 +30961,18 @@
         <v>44</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="AM241" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN241" t="s" s="2">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -31034,20 +30998,20 @@
         <v>72</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P242" t="s" s="2">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="Q242" t="s" s="2">
         <v>44</v>
@@ -31071,10 +31035,10 @@
         <v>142</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>44</v>
@@ -31092,7 +31056,7 @@
         <v>44</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>42</v>
@@ -31113,18 +31077,18 @@
         <v>44</v>
       </c>
       <c r="AL242" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AM242" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -31150,14 +31114,14 @@
         <v>54</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>829</v>
+        <v>992</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>44</v>
@@ -31206,7 +31170,7 @@
         <v>44</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>42</v>
@@ -31227,18 +31191,18 @@
         <v>44</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN243" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -31264,14 +31228,14 @@
         <v>66</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>836</v>
+        <v>994</v>
       </c>
       <c r="M244" s="2"/>
       <c r="N244" t="s" s="2">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>44</v>
@@ -31281,7 +31245,7 @@
         <v>44</v>
       </c>
       <c r="R244" t="s" s="2">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="S244" t="s" s="2">
         <v>44</v>
@@ -31320,7 +31284,7 @@
         <v>44</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>42</v>
@@ -31329,7 +31293,7 @@
         <v>52</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="AI244" t="s" s="2">
         <v>64</v>
@@ -31341,18 +31305,18 @@
         <v>44</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="AM244" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN244" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -31378,16 +31342,16 @@
         <v>72</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>844</v>
+        <v>997</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>44</v>
@@ -31436,7 +31400,7 @@
         <v>44</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>42</v>
@@ -31457,18 +31421,18 @@
         <v>44</v>
       </c>
       <c r="AL245" t="s" s="2">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="AM245" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN245" t="s" s="2">
-        <v>833</v>
+        <v>826</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31494,13 +31458,13 @@
         <v>242</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" t="s" s="2">
@@ -31550,7 +31514,7 @@
         <v>44</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>42</v>
@@ -31571,7 +31535,7 @@
         <v>44</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>465</v>
@@ -31582,7 +31546,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31694,7 +31658,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31808,7 +31772,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31834,7 +31798,7 @@
         <v>54</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="L249" t="s" s="2">
         <v>253</v>
@@ -31922,7 +31886,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -32036,7 +32000,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -32150,7 +32114,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -32176,7 +32140,7 @@
         <v>54</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="L252" t="s" s="2">
         <v>388</v>
@@ -32264,7 +32228,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -32287,13 +32251,13 @@
         <v>44</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" s="2"/>
@@ -32344,7 +32308,7 @@
         <v>44</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>42</v>
@@ -32362,10 +32326,10 @@
         <v>44</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="AL253" t="s" s="2">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="AM253" t="s" s="2">
         <v>44</v>
@@ -32376,7 +32340,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -32488,7 +32452,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -32602,11 +32566,11 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -32628,10 +32592,10 @@
         <v>97</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="M256" t="s" s="2">
         <v>113</v>
@@ -32686,7 +32650,7 @@
         <v>44</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>42</v>
@@ -32718,7 +32682,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32741,16 +32705,16 @@
         <v>44</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" t="s" s="2">
@@ -32779,10 +32743,10 @@
         <v>289</v>
       </c>
       <c r="X257" t="s" s="2">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>44</v>
@@ -32800,7 +32764,7 @@
         <v>44</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>52</v>
@@ -32818,21 +32782,21 @@
         <v>44</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="AM257" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>1038</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32858,10 +32822,10 @@
         <v>148</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
@@ -32891,10 +32855,10 @@
         <v>289</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>44</v>
@@ -32912,7 +32876,7 @@
         <v>44</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>42</v>
@@ -32930,21 +32894,21 @@
         <v>44</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN258" t="s" s="2">
-        <v>1046</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32967,13 +32931,13 @@
         <v>44</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" s="2"/>
@@ -33024,7 +32988,7 @@
         <v>44</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>42</v>
@@ -33039,13 +33003,13 @@
         <v>64</v>
       </c>
       <c r="AJ259" t="s" s="2">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="AK259" t="s" s="2">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="AM259" t="s" s="2">
         <v>44</v>
@@ -33056,7 +33020,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33168,7 +33132,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -33282,7 +33246,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -33308,10 +33272,10 @@
         <v>54</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>253</v>
+        <v>1044</v>
       </c>
       <c r="M262" t="s" s="2">
         <v>254</v>
@@ -33396,7 +33360,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -33510,7 +33474,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33624,7 +33588,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33650,7 +33614,7 @@
         <v>54</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="L265" t="s" s="2">
         <v>388</v>
@@ -33738,11 +33702,11 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -33761,16 +33725,16 @@
         <v>44</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
@@ -33820,7 +33784,7 @@
         <v>44</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>42</v>
@@ -33841,7 +33805,7 @@
         <v>44</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>44</v>
@@ -33852,7 +33816,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33875,16 +33839,16 @@
         <v>44</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="N267" s="2"/>
       <c r="O267" t="s" s="2">
@@ -33934,7 +33898,7 @@
         <v>44</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>42</v>
@@ -33949,13 +33913,13 @@
         <v>64</v>
       </c>
       <c r="AJ267" t="s" s="2">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="AK267" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AL267" t="s" s="2">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="AM267" t="s" s="2">
         <v>44</v>

--- a/output/StructureDefinition-RecetaPrescripcionCl.xlsx
+++ b/output/StructureDefinition-RecetaPrescripcionCl.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$278</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9612" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10010" uniqueCount="1079">
   <si>
     <t>Path</t>
   </si>
@@ -1597,13 +1597,13 @@
     <t>MedicationRequest.groupIdentifier</t>
   </si>
   <si>
-    <t>Número identificador de grupo que debe ser el mismo con el cual se identificaron los farmacos prescritos en el acto clínico. Se genera como UUID</t>
-  </si>
-  <si>
-    <t>Este numero vincula el contenedor (RequestGroup) con todos los farmacos prescritos durante la atención del paciente (medicationRequest). Este hará el uso de Receta y el grupo de farmacos co misma identificacion grupal. El formato debe ser UUID</t>
-  </si>
-  <si>
-    <t>El elemento groupIdentifier de los recursos MedicationRequest generados durante el mismo acto clínico deberán coincidir con el que se genere en el recurso RequestGroup. Este identificador debe ser generado como un valor UUID</t>
+    <t>Número identificador de grupo que debe ser el mismo con el cual se identificaron los farmacos prescritos en el acto clínico. Se genera como un NanoId</t>
+  </si>
+  <si>
+    <t>Este numero vincula el contenedor (RequestGroup) con todos los farmacos prescritos durante la atención del paciente (medicationRequest). Este hará el uso de Receta y el grupo de farmacos co misma identificacion grupal. El formato debe ser NanoId</t>
+  </si>
+  <si>
+    <t>El elemento groupIdentifier de los recursos MedicationRequest generados durante el mismo acto clínico deberán coincidir con el que se genere en el recurso RequestGroup. Este identificador debe ser generado como un valor NanoId</t>
   </si>
   <si>
     <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
@@ -2092,6 +2092,9 @@
     <t>Cantidad de repeticiones</t>
   </si>
   <si>
+    <t>El número de veces que se debe repetir la acción dentro del periodo especificado. Si frequencyMax está presente, este elemento indica el límite inferior del rango permitido de la frecuencia.</t>
+  </si>
+  <si>
     <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
@@ -2114,6 +2117,9 @@
   </si>
   <si>
     <t>Período en el cual se realizan las repeticiones</t>
+  </si>
+  <si>
+    <t>Indica la duración del tiempo durante el cual deben producirse las repeticiones; por ejemplo, para expresar ´3 veces al día´, 3 sería la frecuencia y ´1 día´ sería el periodo. Si periodMax está presente, este elemento indica el límite inferior del rango permitido de la longitud del periodo.</t>
   </si>
   <si>
     <t>Timing.repeat.period</t>
@@ -2361,7 +2367,7 @@
     <t>MedicationRequest.dosageInstruction.route.coding.code</t>
   </si>
   <si>
-    <t>Código de la via de Snomed</t>
+    <t>Código del metodo indicado</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.route.coding.display</t>
@@ -2376,10 +2382,10 @@
     <t>MedicationRequest.dosageInstruction.method</t>
   </si>
   <si>
-    <t>Technique for administering medication</t>
-  </si>
-  <si>
-    <t>Technique for administering medication.</t>
+    <t>Forma exacta en el fármaco ingresa al organismo</t>
+  </si>
+  <si>
+    <t>Forma exacta en el fármaco ingresa al organismo. En este caso se define la ruta plausible para vías de administración</t>
   </si>
   <si>
     <t>Terminologies used often pre-coordinate this term with the route and or form of administration.</t>
@@ -2401,6 +2407,51 @@
   </si>
   <si>
     <t>RXR-4</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.coding</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.coding.system</t>
+  </si>
+  <si>
+    <t>Se usará Snomed Ct para la definición del set de valores</t>
+  </si>
+  <si>
+    <t>Se usará Snomed Ct para la definición del set de valores definidos para este caso</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.coding.version</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.coding.code</t>
+  </si>
+  <si>
+    <t>Código en Snomed-Ct correspondiente al método</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.coding.userSelected</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.method.text</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.doseAndRate</t>
@@ -3439,7 +3490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN267"/>
+  <dimension ref="A1:AN278"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -20613,7 +20664,7 @@
         <v>667</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -20621,7 +20672,7 @@
         <v>44</v>
       </c>
       <c r="P151" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="Q151" t="s" s="2">
         <v>44</v>
@@ -20666,7 +20717,7 @@
         <v>44</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>42</v>
@@ -20698,7 +20749,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20724,10 +20775,10 @@
         <v>636</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -20778,7 +20829,7 @@
         <v>44</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>42</v>
@@ -20810,7 +20861,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20836,10 +20887,10 @@
         <v>648</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -20890,7 +20941,7 @@
         <v>44</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>42</v>
@@ -20922,7 +20973,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20948,10 +20999,10 @@
         <v>648</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -21002,7 +21053,7 @@
         <v>44</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>42</v>
@@ -21034,7 +21085,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -21060,10 +21111,10 @@
         <v>72</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -21114,7 +21165,7 @@
         <v>44</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>42</v>
@@ -21146,7 +21197,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -21172,13 +21223,13 @@
         <v>72</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -21208,7 +21259,7 @@
       </c>
       <c r="X156" s="2"/>
       <c r="Y156" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>44</v>
@@ -21226,7 +21277,7 @@
         <v>44</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>42</v>
@@ -21258,7 +21309,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -21281,16 +21332,16 @@
         <v>53</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -21340,7 +21391,7 @@
         <v>44</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>42</v>
@@ -21372,7 +21423,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -21398,16 +21449,16 @@
         <v>72</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>44</v>
@@ -21435,10 +21486,10 @@
         <v>142</v>
       </c>
       <c r="X158" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>44</v>
@@ -21456,7 +21507,7 @@
         <v>44</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>42</v>
@@ -21477,7 +21528,7 @@
         <v>44</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>44</v>
@@ -21488,7 +21539,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21511,13 +21562,13 @@
         <v>53</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -21568,7 +21619,7 @@
         <v>44</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>42</v>
@@ -21589,7 +21640,7 @@
         <v>44</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>44</v>
@@ -21600,7 +21651,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21626,13 +21677,13 @@
         <v>148</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -21661,10 +21712,10 @@
         <v>76</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="Z160" t="s" s="2">
         <v>44</v>
@@ -21682,7 +21733,7 @@
         <v>44</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>42</v>
@@ -21703,7 +21754,7 @@
         <v>44</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>44</v>
@@ -21714,7 +21765,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21740,13 +21791,13 @@
         <v>201</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -21794,7 +21845,7 @@
         <v>370</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>42</v>
@@ -21815,21 +21866,21 @@
         <v>44</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C162" t="s" s="2">
         <v>44</v>
@@ -21854,13 +21905,13 @@
         <v>201</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -21910,7 +21961,7 @@
         <v>44</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>42</v>
@@ -21931,18 +21982,18 @@
         <v>44</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21968,16 +22019,16 @@
         <v>148</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>44</v>
@@ -22005,10 +22056,10 @@
         <v>289</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>44</v>
@@ -22026,7 +22077,7 @@
         <v>44</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>42</v>
@@ -22047,18 +22098,18 @@
         <v>44</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -22084,14 +22135,14 @@
         <v>148</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>44</v>
@@ -22119,10 +22170,10 @@
         <v>289</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>44</v>
@@ -22140,7 +22191,7 @@
         <v>44</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>42</v>
@@ -22161,18 +22212,18 @@
         <v>44</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -22284,7 +22335,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22398,7 +22449,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22514,7 +22565,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22626,7 +22677,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22740,7 +22791,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22766,10 +22817,10 @@
         <v>66</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="M170" t="s" s="2">
         <v>302</v>
@@ -22785,7 +22836,7 @@
         <v>44</v>
       </c>
       <c r="R170" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="S170" t="s" s="2">
         <v>44</v>
@@ -22856,7 +22907,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22970,7 +23021,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22996,10 +23047,10 @@
         <v>72</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
@@ -23084,7 +23135,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -23198,7 +23249,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23314,7 +23365,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23428,9 +23479,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23444,7 +23495,7 @@
         <v>52</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>44</v>
@@ -23456,16 +23507,16 @@
         <v>148</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>44</v>
@@ -23493,10 +23544,10 @@
         <v>289</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="Z176" t="s" s="2">
         <v>44</v>
@@ -23514,7 +23565,7 @@
         <v>44</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>42</v>
@@ -23535,18 +23586,18 @@
         <v>44</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23557,25 +23608,25 @@
         <v>42</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>620</v>
+        <v>54</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>772</v>
+        <v>128</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>773</v>
+        <v>129</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -23626,19 +23677,19 @@
         <v>44</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>774</v>
+        <v>130</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>44</v>
@@ -23647,29 +23698,29 @@
         <v>44</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>775</v>
+        <v>44</v>
       </c>
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>44</v>
@@ -23681,15 +23732,17 @@
         <v>44</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M178" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M178" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
         <v>44</v>
@@ -23726,31 +23779,31 @@
         <v>44</v>
       </c>
       <c r="AA178" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB178" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC178" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD178" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>44</v>
@@ -23770,11 +23823,11 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23790,21 +23843,23 @@
         <v>44</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N179" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O179" t="s" s="2">
         <v>44</v>
       </c>
@@ -23840,19 +23895,19 @@
         <v>44</v>
       </c>
       <c r="AA179" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC179" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD179" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>42</v>
@@ -23864,7 +23919,7 @@
         <v>44</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>44</v>
@@ -23873,18 +23928,18 @@
         <v>44</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>44</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23904,21 +23959,19 @@
         <v>44</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>779</v>
+        <v>128</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>780</v>
+        <v>129</v>
       </c>
       <c r="M180" s="2"/>
-      <c r="N180" t="s" s="2">
-        <v>781</v>
-      </c>
+      <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
         <v>44</v>
       </c>
@@ -23942,13 +23995,13 @@
         <v>44</v>
       </c>
       <c r="W180" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>782</v>
+        <v>44</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>783</v>
+        <v>44</v>
       </c>
       <c r="Z180" t="s" s="2">
         <v>44</v>
@@ -23966,7 +24019,7 @@
         <v>44</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>784</v>
+        <v>130</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>42</v>
@@ -23978,7 +24031,7 @@
         <v>44</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>44</v>
@@ -23987,29 +24040,29 @@
         <v>44</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>785</v>
+        <v>44</v>
       </c>
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>44</v>
@@ -24018,23 +24071,21 @@
         <v>44</v>
       </c>
       <c r="I181" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>787</v>
+        <v>97</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>788</v>
+        <v>133</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>789</v>
+        <v>134</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>791</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
         <v>44</v>
       </c>
@@ -24070,29 +24121,31 @@
         <v>44</v>
       </c>
       <c r="AA181" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AB181" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AB181" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="AC181" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD181" t="s" s="2">
-        <v>370</v>
+        <v>101</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>792</v>
+        <v>136</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>44</v>
@@ -24101,22 +24154,20 @@
         <v>44</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>769</v>
+        <v>131</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN181" t="s" s="2">
-        <v>793</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
         <v>44</v>
       </c>
@@ -24134,22 +24185,22 @@
         <v>44</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>795</v>
+        <v>66</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>796</v>
+        <v>779</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>797</v>
+        <v>780</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>798</v>
+        <v>302</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>791</v>
+        <v>175</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>44</v>
@@ -24159,7 +24210,7 @@
         <v>44</v>
       </c>
       <c r="R182" t="s" s="2">
-        <v>44</v>
+        <v>756</v>
       </c>
       <c r="S182" t="s" s="2">
         <v>44</v>
@@ -24198,7 +24249,7 @@
         <v>44</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>792</v>
+        <v>176</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>42</v>
@@ -24207,10 +24258,10 @@
         <v>52</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>799</v>
+        <v>64</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>44</v>
@@ -24219,18 +24270,18 @@
         <v>44</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>800</v>
+        <v>177</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN182" t="s" s="2">
-        <v>801</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24250,18 +24301,20 @@
         <v>44</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J183" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M183" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
         <v>44</v>
@@ -24310,7 +24363,7 @@
         <v>44</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>42</v>
@@ -24322,7 +24375,7 @@
         <v>44</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>44</v>
@@ -24331,29 +24384,29 @@
         <v>44</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>131</v>
+        <v>184</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>44</v>
+        <v>185</v>
       </c>
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>803</v>
+        <v>782</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F184" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G184" t="s" s="2">
         <v>44</v>
@@ -24362,21 +24415,21 @@
         <v>44</v>
       </c>
       <c r="I184" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>133</v>
+        <v>783</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N184" s="2"/>
+        <v>783</v>
+      </c>
+      <c r="M184" s="2"/>
+      <c r="N184" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O184" t="s" s="2">
         <v>44</v>
       </c>
@@ -24412,31 +24465,31 @@
         <v>44</v>
       </c>
       <c r="AA184" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB184" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD184" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE184" t="s" s="2">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="AF184" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>44</v>
@@ -24445,18 +24498,18 @@
         <v>44</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>44</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24479,19 +24532,17 @@
         <v>53</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>648</v>
+        <v>54</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>806</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M185" s="2"/>
       <c r="N185" t="s" s="2">
-        <v>807</v>
+        <v>196</v>
       </c>
       <c r="O185" t="s" s="2">
         <v>44</v>
@@ -24540,7 +24591,7 @@
         <v>44</v>
       </c>
       <c r="AE185" t="s" s="2">
-        <v>808</v>
+        <v>197</v>
       </c>
       <c r="AF185" t="s" s="2">
         <v>42</v>
@@ -24561,18 +24612,18 @@
         <v>44</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>809</v>
+        <v>198</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>810</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24583,36 +24634,36 @@
         <v>42</v>
       </c>
       <c r="F186" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I186" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>812</v>
+        <v>202</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="M186" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M186" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N186" t="s" s="2">
-        <v>814</v>
+        <v>205</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P186" t="s" s="2">
-        <v>815</v>
-      </c>
+      <c r="P186" s="2"/>
       <c r="Q186" t="s" s="2">
         <v>44</v>
       </c>
@@ -24632,13 +24683,13 @@
         <v>44</v>
       </c>
       <c r="W186" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>816</v>
+        <v>44</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>817</v>
+        <v>44</v>
       </c>
       <c r="Z186" t="s" s="2">
         <v>44</v>
@@ -24656,7 +24707,7 @@
         <v>44</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>818</v>
+        <v>206</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>42</v>
@@ -24677,18 +24728,18 @@
         <v>44</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>819</v>
+        <v>207</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>820</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>821</v>
+        <v>787</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24714,14 +24765,16 @@
         <v>54</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>822</v>
+        <v>210</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="M187" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="N187" t="s" s="2">
-        <v>823</v>
+        <v>213</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>44</v>
@@ -24770,7 +24823,7 @@
         <v>44</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>824</v>
+        <v>214</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>42</v>
@@ -24791,18 +24844,18 @@
         <v>44</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>825</v>
+        <v>215</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN187" t="s" s="2">
-        <v>826</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="188" hidden="true">
+    <row r="188">
       <c r="A188" t="s" s="2">
-        <v>827</v>
+        <v>788</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24813,10 +24866,10 @@
         <v>42</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H188" t="s" s="2">
         <v>44</v>
@@ -24825,18 +24878,16 @@
         <v>53</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>66</v>
+        <v>620</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>828</v>
+        <v>789</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>828</v>
+        <v>790</v>
       </c>
       <c r="M188" s="2"/>
-      <c r="N188" t="s" s="2">
-        <v>829</v>
-      </c>
+      <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
         <v>44</v>
       </c>
@@ -24884,16 +24935,16 @@
         <v>44</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>830</v>
+        <v>791</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>831</v>
+        <v>44</v>
       </c>
       <c r="AI188" t="s" s="2">
         <v>64</v>
@@ -24905,18 +24956,18 @@
         <v>44</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>832</v>
+        <v>44</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN188" t="s" s="2">
-        <v>826</v>
+        <v>792</v>
       </c>
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>833</v>
+        <v>793</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24936,23 +24987,19 @@
         <v>44</v>
       </c>
       <c r="I189" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>834</v>
+        <v>128</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>837</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M189" s="2"/>
+      <c r="N189" s="2"/>
       <c r="O189" t="s" s="2">
         <v>44</v>
       </c>
@@ -25000,7 +25047,7 @@
         <v>44</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>838</v>
+        <v>130</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>42</v>
@@ -25012,7 +25059,7 @@
         <v>44</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>44</v>
@@ -25021,31 +25068,29 @@
         <v>44</v>
       </c>
       <c r="AL189" t="s" s="2">
-        <v>839</v>
+        <v>131</v>
       </c>
       <c r="AM189" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN189" t="s" s="2">
-        <v>826</v>
+        <v>44</v>
       </c>
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>840</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>44</v>
@@ -25054,23 +25099,21 @@
         <v>44</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>841</v>
+        <v>97</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>788</v>
+        <v>133</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>789</v>
+        <v>134</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>791</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
         <v>44</v>
       </c>
@@ -25106,31 +25149,31 @@
         <v>44</v>
       </c>
       <c r="AA190" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB190" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC190" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD190" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>792</v>
+        <v>136</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>44</v>
@@ -25139,18 +25182,18 @@
         <v>44</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>769</v>
+        <v>131</v>
       </c>
       <c r="AM190" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN190" t="s" s="2">
-        <v>793</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -25170,19 +25213,21 @@
         <v>44</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>128</v>
+        <v>796</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>129</v>
+        <v>797</v>
       </c>
       <c r="M191" s="2"/>
-      <c r="N191" s="2"/>
+      <c r="N191" t="s" s="2">
+        <v>798</v>
+      </c>
       <c r="O191" t="s" s="2">
         <v>44</v>
       </c>
@@ -25206,13 +25251,13 @@
         <v>44</v>
       </c>
       <c r="W191" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>44</v>
+        <v>799</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>44</v>
+        <v>800</v>
       </c>
       <c r="Z191" t="s" s="2">
         <v>44</v>
@@ -25230,7 +25275,7 @@
         <v>44</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>130</v>
+        <v>801</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>42</v>
@@ -25242,7 +25287,7 @@
         <v>44</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>44</v>
@@ -25251,13 +25296,13 @@
         <v>44</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN191" t="s" s="2">
-        <v>44</v>
+        <v>802</v>
       </c>
     </row>
     <row r="192" hidden="true">
@@ -25266,14 +25311,14 @@
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F192" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G192" t="s" s="2">
         <v>44</v>
@@ -25282,21 +25327,23 @@
         <v>44</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>97</v>
+        <v>804</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>133</v>
+        <v>805</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>134</v>
+        <v>806</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N192" s="2"/>
+        <v>807</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>808</v>
+      </c>
       <c r="O192" t="s" s="2">
         <v>44</v>
       </c>
@@ -25332,31 +25379,29 @@
         <v>44</v>
       </c>
       <c r="AA192" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="AB192" s="2"/>
       <c r="AC192" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD192" t="s" s="2">
-        <v>101</v>
+        <v>370</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>136</v>
+        <v>809</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>44</v>
@@ -25365,20 +25410,22 @@
         <v>44</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>131</v>
+        <v>771</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN192" t="s" s="2">
-        <v>44</v>
+        <v>810</v>
       </c>
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="B193" s="2"/>
+        <v>803</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>811</v>
+      </c>
       <c r="C193" t="s" s="2">
         <v>44</v>
       </c>
@@ -25396,21 +25443,23 @@
         <v>44</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>843</v>
+        <v>813</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>844</v>
+        <v>814</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>845</v>
-      </c>
-      <c r="N193" s="2"/>
+        <v>815</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>808</v>
+      </c>
       <c r="O193" t="s" s="2">
         <v>44</v>
       </c>
@@ -25458,7 +25507,7 @@
         <v>44</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>846</v>
+        <v>809</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>42</v>
@@ -25467,10 +25516,10 @@
         <v>52</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>64</v>
+        <v>816</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>44</v>
@@ -25479,18 +25528,18 @@
         <v>44</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>847</v>
+        <v>817</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN193" t="s" s="2">
-        <v>848</v>
+        <v>818</v>
       </c>
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>849</v>
+        <v>819</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25602,7 +25651,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25716,7 +25765,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>851</v>
+        <v>821</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25742,16 +25791,16 @@
         <v>648</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>852</v>
+        <v>822</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>852</v>
+        <v>822</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>44</v>
@@ -25800,7 +25849,7 @@
         <v>44</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>42</v>
@@ -25821,18 +25870,18 @@
         <v>44</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN196" t="s" s="2">
-        <v>810</v>
+        <v>827</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25858,20 +25907,20 @@
         <v>72</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>814</v>
+        <v>831</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P197" t="s" s="2">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="Q197" t="s" s="2">
         <v>44</v>
@@ -25895,10 +25944,10 @@
         <v>142</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="Z197" t="s" s="2">
         <v>44</v>
@@ -25916,7 +25965,7 @@
         <v>44</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>42</v>
@@ -25937,18 +25986,18 @@
         <v>44</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN197" t="s" s="2">
-        <v>820</v>
+        <v>837</v>
       </c>
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25974,14 +26023,14 @@
         <v>54</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="M198" s="2"/>
       <c r="N198" t="s" s="2">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>44</v>
@@ -26030,7 +26079,7 @@
         <v>44</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>42</v>
@@ -26051,18 +26100,18 @@
         <v>44</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN198" t="s" s="2">
-        <v>826</v>
+        <v>843</v>
       </c>
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -26088,14 +26137,14 @@
         <v>66</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="M199" s="2"/>
       <c r="N199" t="s" s="2">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>44</v>
@@ -26144,7 +26193,7 @@
         <v>44</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>42</v>
@@ -26153,7 +26202,7 @@
         <v>52</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="AI199" t="s" s="2">
         <v>64</v>
@@ -26165,18 +26214,18 @@
         <v>44</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>826</v>
+        <v>843</v>
       </c>
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -26202,16 +26251,16 @@
         <v>72</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>44</v>
@@ -26260,7 +26309,7 @@
         <v>44</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>42</v>
@@ -26281,20 +26330,22 @@
         <v>44</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>826</v>
+        <v>843</v>
       </c>
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="B201" t="s" s="2">
         <v>857</v>
       </c>
-      <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
         <v>44</v>
       </c>
@@ -26315,18 +26366,20 @@
         <v>53</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>795</v>
+        <v>858</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>858</v>
+        <v>805</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>859</v>
+        <v>806</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>860</v>
-      </c>
-      <c r="N201" s="2"/>
+        <v>807</v>
+      </c>
+      <c r="N201" t="s" s="2">
+        <v>808</v>
+      </c>
       <c r="O201" t="s" s="2">
         <v>44</v>
       </c>
@@ -26374,7 +26427,7 @@
         <v>44</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>861</v>
+        <v>809</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>42</v>
@@ -26395,18 +26448,18 @@
         <v>44</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>862</v>
+        <v>771</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>863</v>
+        <v>810</v>
       </c>
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>864</v>
+        <v>819</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26518,7 +26571,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>865</v>
+        <v>820</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26632,7 +26685,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26655,20 +26708,18 @@
         <v>53</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>648</v>
+        <v>812</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>807</v>
-      </c>
+        <v>862</v>
+      </c>
+      <c r="N204" s="2"/>
       <c r="O204" t="s" s="2">
         <v>44</v>
       </c>
@@ -26716,7 +26767,7 @@
         <v>44</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>808</v>
+        <v>863</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>42</v>
@@ -26737,18 +26788,18 @@
         <v>44</v>
       </c>
       <c r="AL204" t="s" s="2">
-        <v>809</v>
+        <v>864</v>
       </c>
       <c r="AM204" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN204" t="s" s="2">
-        <v>810</v>
+        <v>865</v>
       </c>
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26759,36 +26810,32 @@
         <v>42</v>
       </c>
       <c r="F205" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G205" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I205" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>812</v>
+        <v>128</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>813</v>
+        <v>129</v>
       </c>
       <c r="M205" s="2"/>
-      <c r="N205" t="s" s="2">
-        <v>814</v>
-      </c>
+      <c r="N205" s="2"/>
       <c r="O205" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P205" t="s" s="2">
-        <v>815</v>
-      </c>
+      <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>44</v>
       </c>
@@ -26808,13 +26855,13 @@
         <v>44</v>
       </c>
       <c r="W205" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>816</v>
+        <v>44</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>817</v>
+        <v>44</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>44</v>
@@ -26832,7 +26879,7 @@
         <v>44</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>818</v>
+        <v>130</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>42</v>
@@ -26844,7 +26891,7 @@
         <v>44</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>44</v>
@@ -26853,29 +26900,29 @@
         <v>44</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>819</v>
+        <v>131</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN205" t="s" s="2">
-        <v>820</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s" s="2">
         <v>44</v>
@@ -26884,21 +26931,21 @@
         <v>44</v>
       </c>
       <c r="I206" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>822</v>
+        <v>133</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="M206" s="2"/>
-      <c r="N206" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N206" s="2"/>
       <c r="O206" t="s" s="2">
         <v>44</v>
       </c>
@@ -26934,31 +26981,31 @@
         <v>44</v>
       </c>
       <c r="AA206" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB206" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC206" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD206" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>824</v>
+        <v>136</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>44</v>
@@ -26967,18 +27014,18 @@
         <v>44</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>825</v>
+        <v>131</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>826</v>
+        <v>44</v>
       </c>
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -27001,17 +27048,19 @@
         <v>53</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>66</v>
+        <v>648</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="M207" s="2"/>
+        <v>869</v>
+      </c>
+      <c r="M207" t="s" s="2">
+        <v>823</v>
+      </c>
       <c r="N207" t="s" s="2">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>44</v>
@@ -27060,7 +27109,7 @@
         <v>44</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>42</v>
@@ -27069,7 +27118,7 @@
         <v>52</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>831</v>
+        <v>44</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>64</v>
@@ -27081,13 +27130,13 @@
         <v>44</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="AM207" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN207" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="208" hidden="true">
@@ -27103,13 +27152,13 @@
         <v>42</v>
       </c>
       <c r="F208" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I208" t="s" s="2">
         <v>53</v>
@@ -27118,65 +27167,65 @@
         <v>72</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="L208" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="M208" s="2"/>
+      <c r="N208" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="O208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P208" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="Q208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W208" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="X208" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="Y208" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE208" t="s" s="2">
         <v>835</v>
-      </c>
-      <c r="L208" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="O208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P208" s="2"/>
-      <c r="Q208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>838</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>42</v>
@@ -27197,13 +27246,13 @@
         <v>44</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AM208" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN208" t="s" s="2">
-        <v>826</v>
+        <v>837</v>
       </c>
     </row>
     <row r="209" hidden="true">
@@ -27231,19 +27280,17 @@
         <v>53</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>872</v>
+        <v>54</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>875</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="M209" s="2"/>
       <c r="N209" t="s" s="2">
-        <v>876</v>
+        <v>840</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>44</v>
@@ -27292,7 +27339,7 @@
         <v>44</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>877</v>
+        <v>841</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>42</v>
@@ -27313,18 +27360,18 @@
         <v>44</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>878</v>
+        <v>842</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN209" t="s" s="2">
-        <v>879</v>
+        <v>843</v>
       </c>
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -27347,19 +27394,17 @@
         <v>53</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>881</v>
+        <v>66</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>882</v>
+        <v>845</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="M210" t="s" s="2">
-        <v>884</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>885</v>
+        <v>846</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>44</v>
@@ -27408,7 +27453,7 @@
         <v>44</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>886</v>
+        <v>847</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>42</v>
@@ -27417,7 +27462,7 @@
         <v>52</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>44</v>
+        <v>848</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>64</v>
@@ -27429,18 +27474,18 @@
         <v>44</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>887</v>
+        <v>849</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN210" t="s" s="2">
-        <v>888</v>
+        <v>843</v>
       </c>
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27463,19 +27508,19 @@
         <v>53</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>795</v>
+        <v>72</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>890</v>
+        <v>852</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>891</v>
+        <v>852</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>892</v>
+        <v>853</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>893</v>
+        <v>854</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>44</v>
@@ -27524,7 +27569,7 @@
         <v>44</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>894</v>
+        <v>855</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>42</v>
@@ -27545,18 +27590,18 @@
         <v>44</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>895</v>
+        <v>856</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN211" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27579,18 +27624,18 @@
         <v>53</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>898</v>
-      </c>
-      <c r="M212" s="2"/>
-      <c r="N212" t="s" s="2">
-        <v>899</v>
-      </c>
+        <v>876</v>
+      </c>
+      <c r="M212" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="N212" s="2"/>
       <c r="O212" t="s" s="2">
         <v>44</v>
       </c>
@@ -27638,7 +27683,7 @@
         <v>44</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>42</v>
@@ -27659,18 +27704,18 @@
         <v>44</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="AM212" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN212" t="s" s="2">
-        <v>44</v>
+        <v>880</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27678,13 +27723,13 @@
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F213" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>44</v>
@@ -27693,13 +27738,13 @@
         <v>44</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>902</v>
+        <v>54</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>903</v>
+        <v>128</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>904</v>
+        <v>129</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" s="2"/>
@@ -27750,7 +27795,7 @@
         <v>44</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>901</v>
+        <v>130</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>42</v>
@@ -27762,16 +27807,16 @@
         <v>44</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>905</v>
+        <v>44</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>906</v>
+        <v>131</v>
       </c>
       <c r="AM213" t="s" s="2">
         <v>44</v>
@@ -27782,18 +27827,18 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>907</v>
+        <v>882</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F214" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>44</v>
@@ -27805,15 +27850,17 @@
         <v>44</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M214" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M214" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
         <v>44</v>
@@ -27850,31 +27897,31 @@
         <v>44</v>
       </c>
       <c r="AA214" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB214" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC214" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD214" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>44</v>
@@ -27894,18 +27941,18 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>44</v>
@@ -27914,21 +27961,23 @@
         <v>44</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>97</v>
+        <v>648</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>133</v>
+        <v>869</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>134</v>
+        <v>869</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N215" s="2"/>
+        <v>823</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>824</v>
+      </c>
       <c r="O215" t="s" s="2">
         <v>44</v>
       </c>
@@ -27976,19 +28025,19 @@
         <v>44</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>136</v>
+        <v>825</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>44</v>
@@ -27997,29 +28046,29 @@
         <v>44</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>131</v>
+        <v>826</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN215" t="s" s="2">
-        <v>44</v>
+        <v>827</v>
       </c>
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>909</v>
+        <v>884</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
-        <v>571</v>
+        <v>44</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F216" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216" t="s" s="2">
         <v>44</v>
@@ -28031,24 +28080,24 @@
         <v>53</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>572</v>
+        <v>829</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M216" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>114</v>
+        <v>831</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P216" s="2"/>
+      <c r="P216" t="s" s="2">
+        <v>832</v>
+      </c>
       <c r="Q216" t="s" s="2">
         <v>44</v>
       </c>
@@ -28068,13 +28117,13 @@
         <v>44</v>
       </c>
       <c r="W216" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="X216" t="s" s="2">
-        <v>44</v>
+        <v>833</v>
       </c>
       <c r="Y216" t="s" s="2">
-        <v>44</v>
+        <v>834</v>
       </c>
       <c r="Z216" t="s" s="2">
         <v>44</v>
@@ -28092,19 +28141,19 @@
         <v>44</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>574</v>
+        <v>835</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI216" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ216" t="s" s="2">
         <v>44</v>
@@ -28113,18 +28162,18 @@
         <v>44</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>95</v>
+        <v>836</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN216" t="s" s="2">
-        <v>44</v>
+        <v>837</v>
       </c>
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>910</v>
+        <v>885</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -28144,21 +28193,21 @@
         <v>44</v>
       </c>
       <c r="I217" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>902</v>
+        <v>54</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>911</v>
+        <v>839</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="N217" s="2"/>
+        <v>839</v>
+      </c>
+      <c r="M217" s="2"/>
+      <c r="N217" t="s" s="2">
+        <v>840</v>
+      </c>
       <c r="O217" t="s" s="2">
         <v>44</v>
       </c>
@@ -28206,7 +28255,7 @@
         <v>44</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>910</v>
+        <v>841</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>42</v>
@@ -28227,18 +28276,18 @@
         <v>44</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>914</v>
+        <v>842</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN217" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>915</v>
+        <v>886</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -28258,19 +28307,21 @@
         <v>44</v>
       </c>
       <c r="I218" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>128</v>
+        <v>845</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>129</v>
+        <v>845</v>
       </c>
       <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
+      <c r="N218" t="s" s="2">
+        <v>846</v>
+      </c>
       <c r="O218" t="s" s="2">
         <v>44</v>
       </c>
@@ -28318,7 +28369,7 @@
         <v>44</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>130</v>
+        <v>847</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>42</v>
@@ -28327,10 +28378,10 @@
         <v>52</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>44</v>
+        <v>848</v>
       </c>
       <c r="AI218" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ218" t="s" s="2">
         <v>44</v>
@@ -28339,29 +28390,29 @@
         <v>44</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>131</v>
+        <v>849</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN218" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>916</v>
+        <v>887</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F219" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G219" t="s" s="2">
         <v>44</v>
@@ -28370,21 +28421,23 @@
         <v>44</v>
       </c>
       <c r="I219" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>133</v>
+        <v>852</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>134</v>
+        <v>852</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N219" s="2"/>
+        <v>853</v>
+      </c>
+      <c r="N219" t="s" s="2">
+        <v>854</v>
+      </c>
       <c r="O219" t="s" s="2">
         <v>44</v>
       </c>
@@ -28432,19 +28485,19 @@
         <v>44</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>136</v>
+        <v>855</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>44</v>
@@ -28453,53 +28506,53 @@
         <v>44</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>131</v>
+        <v>856</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN219" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>917</v>
+        <v>888</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
-        <v>571</v>
+        <v>44</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F220" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G220" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>97</v>
+        <v>889</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>572</v>
+        <v>890</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>573</v>
+        <v>891</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>113</v>
+        <v>892</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>114</v>
+        <v>893</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>44</v>
@@ -28548,19 +28601,19 @@
         <v>44</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>574</v>
+        <v>894</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ220" t="s" s="2">
         <v>44</v>
@@ -28569,18 +28622,18 @@
         <v>44</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>95</v>
+        <v>895</v>
       </c>
       <c r="AM220" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN220" t="s" s="2">
-        <v>44</v>
+        <v>896</v>
       </c>
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>918</v>
+        <v>897</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28600,19 +28653,23 @@
         <v>44</v>
       </c>
       <c r="I221" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>795</v>
+        <v>898</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="M221" s="2"/>
-      <c r="N221" s="2"/>
+        <v>900</v>
+      </c>
+      <c r="M221" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="N221" t="s" s="2">
+        <v>902</v>
+      </c>
       <c r="O221" t="s" s="2">
         <v>44</v>
       </c>
@@ -28660,7 +28717,7 @@
         <v>44</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>42</v>
@@ -28681,18 +28738,18 @@
         <v>44</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN221" t="s" s="2">
-        <v>44</v>
+        <v>905</v>
       </c>
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28712,19 +28769,23 @@
         <v>44</v>
       </c>
       <c r="I222" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>923</v>
+        <v>812</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="M222" s="2"/>
-      <c r="N222" s="2"/>
+        <v>908</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>910</v>
+      </c>
       <c r="O222" t="s" s="2">
         <v>44</v>
       </c>
@@ -28772,7 +28833,7 @@
         <v>44</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>42</v>
@@ -28793,7 +28854,7 @@
         <v>44</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>44</v>
@@ -28804,7 +28865,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28824,19 +28885,21 @@
         <v>44</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>923</v>
+        <v>812</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="M223" s="2"/>
-      <c r="N223" s="2"/>
+      <c r="N223" t="s" s="2">
+        <v>916</v>
+      </c>
       <c r="O223" t="s" s="2">
         <v>44</v>
       </c>
@@ -28884,7 +28947,7 @@
         <v>44</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>42</v>
@@ -28905,7 +28968,7 @@
         <v>44</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>44</v>
@@ -28916,7 +28979,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28939,20 +29002,16 @@
         <v>44</v>
       </c>
       <c r="J224" t="s" s="2">
-        <v>235</v>
+        <v>919</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="M224" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>933</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="M224" s="2"/>
+      <c r="N224" s="2"/>
       <c r="O224" t="s" s="2">
         <v>44</v>
       </c>
@@ -29000,7 +29059,7 @@
         <v>44</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>42</v>
@@ -29018,10 +29077,10 @@
         <v>44</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>44</v>
@@ -29032,7 +29091,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -29144,7 +29203,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -29214,16 +29273,16 @@
         <v>44</v>
       </c>
       <c r="AA226" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB226" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC226" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD226" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE226" t="s" s="2">
         <v>136</v>
@@ -29258,41 +29317,43 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
-        <v>44</v>
+        <v>571</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F227" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G227" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H227" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I227" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>423</v>
+        <v>97</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>939</v>
+        <v>572</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>939</v>
+        <v>573</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="N227" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O227" t="s" s="2">
         <v>44</v>
       </c>
@@ -29340,19 +29401,19 @@
         <v>44</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>941</v>
+        <v>574</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>942</v>
+        <v>44</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>44</v>
@@ -29361,18 +29422,18 @@
         <v>44</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>847</v>
+        <v>95</v>
       </c>
       <c r="AM227" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN227" t="s" s="2">
-        <v>943</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -29392,27 +29453,25 @@
         <v>44</v>
       </c>
       <c r="I228" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>423</v>
+        <v>919</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P228" t="s" s="2">
-        <v>947</v>
-      </c>
+      <c r="P228" s="2"/>
       <c r="Q228" t="s" s="2">
         <v>44</v>
       </c>
@@ -29456,7 +29515,7 @@
         <v>44</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>42</v>
@@ -29465,7 +29524,7 @@
         <v>52</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>942</v>
+        <v>44</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>64</v>
@@ -29477,18 +29536,18 @@
         <v>44</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>862</v>
+        <v>931</v>
       </c>
       <c r="AM228" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN228" t="s" s="2">
-        <v>949</v>
+        <v>44</v>
       </c>
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -29511,17 +29570,15 @@
         <v>44</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>705</v>
+        <v>54</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>951</v>
+        <v>128</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="M229" t="s" s="2">
-        <v>953</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M229" s="2"/>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
         <v>44</v>
@@ -29570,7 +29627,7 @@
         <v>44</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>950</v>
+        <v>130</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>42</v>
@@ -29582,41 +29639,41 @@
         <v>44</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>954</v>
+        <v>44</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>955</v>
+        <v>131</v>
       </c>
       <c r="AM229" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN229" t="s" s="2">
-        <v>956</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H230" t="s" s="2">
         <v>44</v>
@@ -29625,15 +29682,17 @@
         <v>44</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>795</v>
+        <v>97</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>958</v>
+        <v>133</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="M230" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
         <v>44</v>
@@ -29682,71 +29741,75 @@
         <v>44</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>957</v>
+        <v>136</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>960</v>
+        <v>44</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>961</v>
+        <v>131</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN230" t="s" s="2">
-        <v>962</v>
+        <v>44</v>
       </c>
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>963</v>
+        <v>934</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
-        <v>44</v>
+        <v>571</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F231" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G231" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H231" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I231" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>128</v>
+        <v>572</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M231" s="2"/>
-      <c r="N231" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N231" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O231" t="s" s="2">
         <v>44</v>
       </c>
@@ -29794,19 +29857,19 @@
         <v>44</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>130</v>
+        <v>574</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG231" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH231" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>44</v>
@@ -29815,7 +29878,7 @@
         <v>44</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>44</v>
@@ -29826,18 +29889,18 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>964</v>
+        <v>935</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F232" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>44</v>
@@ -29849,17 +29912,15 @@
         <v>44</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>97</v>
+        <v>812</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>133</v>
+        <v>936</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>937</v>
+      </c>
+      <c r="M232" s="2"/>
       <c r="N232" s="2"/>
       <c r="O232" t="s" s="2">
         <v>44</v>
@@ -29896,31 +29957,31 @@
         <v>44</v>
       </c>
       <c r="AA232" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB232" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC232" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD232" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>136</v>
+        <v>935</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG232" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH232" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI232" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ232" t="s" s="2">
         <v>44</v>
@@ -29929,7 +29990,7 @@
         <v>44</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>131</v>
+        <v>938</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>44</v>
@@ -29940,7 +30001,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>965</v>
+        <v>939</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29960,23 +30021,19 @@
         <v>44</v>
       </c>
       <c r="I233" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>648</v>
+        <v>940</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>966</v>
+        <v>941</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>967</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>968</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>807</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
         <v>44</v>
       </c>
@@ -30024,7 +30081,7 @@
         <v>44</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>808</v>
+        <v>939</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>42</v>
@@ -30045,18 +30102,18 @@
         <v>44</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>809</v>
+        <v>943</v>
       </c>
       <c r="AM233" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN233" t="s" s="2">
-        <v>810</v>
+        <v>44</v>
       </c>
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>969</v>
+        <v>944</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -30067,36 +30124,32 @@
         <v>42</v>
       </c>
       <c r="F234" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G234" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H234" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>72</v>
+        <v>940</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>812</v>
+        <v>945</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>813</v>
+        <v>946</v>
       </c>
       <c r="M234" s="2"/>
-      <c r="N234" t="s" s="2">
-        <v>814</v>
-      </c>
+      <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P234" t="s" s="2">
-        <v>815</v>
-      </c>
+      <c r="P234" s="2"/>
       <c r="Q234" t="s" s="2">
         <v>44</v>
       </c>
@@ -30116,13 +30169,13 @@
         <v>44</v>
       </c>
       <c r="W234" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>816</v>
+        <v>44</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>817</v>
+        <v>44</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>44</v>
@@ -30140,7 +30193,7 @@
         <v>44</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>818</v>
+        <v>944</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>42</v>
@@ -30161,18 +30214,18 @@
         <v>44</v>
       </c>
       <c r="AL234" t="s" s="2">
-        <v>819</v>
+        <v>943</v>
       </c>
       <c r="AM234" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN234" t="s" s="2">
-        <v>820</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="235" hidden="true">
+    <row r="235">
       <c r="A235" t="s" s="2">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -30180,32 +30233,34 @@
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F235" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G235" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H235" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I235" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>972</v>
-      </c>
-      <c r="M235" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="M235" t="s" s="2">
+        <v>949</v>
+      </c>
       <c r="N235" t="s" s="2">
-        <v>823</v>
+        <v>950</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>44</v>
@@ -30254,7 +30309,7 @@
         <v>44</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>824</v>
+        <v>947</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>42</v>
@@ -30272,21 +30327,21 @@
         <v>44</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>44</v>
+        <v>951</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>825</v>
+        <v>952</v>
       </c>
       <c r="AM235" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN235" t="s" s="2">
-        <v>826</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>973</v>
+        <v>953</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -30306,21 +30361,19 @@
         <v>44</v>
       </c>
       <c r="I236" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>974</v>
+        <v>128</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>975</v>
+        <v>129</v>
       </c>
       <c r="M236" s="2"/>
-      <c r="N236" t="s" s="2">
-        <v>829</v>
-      </c>
+      <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
         <v>44</v>
       </c>
@@ -30368,7 +30421,7 @@
         <v>44</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>830</v>
+        <v>130</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>42</v>
@@ -30377,10 +30430,10 @@
         <v>52</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>831</v>
+        <v>44</v>
       </c>
       <c r="AI236" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ236" t="s" s="2">
         <v>44</v>
@@ -30389,29 +30442,29 @@
         <v>44</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>832</v>
+        <v>131</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN236" t="s" s="2">
-        <v>826</v>
+        <v>44</v>
       </c>
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>976</v>
+        <v>954</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F237" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G237" t="s" s="2">
         <v>44</v>
@@ -30420,23 +30473,21 @@
         <v>44</v>
       </c>
       <c r="I237" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>977</v>
+        <v>133</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>978</v>
+        <v>134</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>837</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N237" s="2"/>
       <c r="O237" t="s" s="2">
         <v>44</v>
       </c>
@@ -30472,31 +30523,31 @@
         <v>44</v>
       </c>
       <c r="AA237" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB237" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC237" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD237" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>838</v>
+        <v>136</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ237" t="s" s="2">
         <v>44</v>
@@ -30505,18 +30556,18 @@
         <v>44</v>
       </c>
       <c r="AL237" t="s" s="2">
-        <v>839</v>
+        <v>131</v>
       </c>
       <c r="AM237" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN237" t="s" s="2">
-        <v>826</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30530,25 +30581,25 @@
         <v>52</v>
       </c>
       <c r="G238" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I238" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H238" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I238" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J238" t="s" s="2">
-        <v>923</v>
+        <v>423</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>981</v>
+        <v>956</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>982</v>
+        <v>957</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
@@ -30598,7 +30649,7 @@
         <v>44</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>42</v>
@@ -30607,7 +30658,7 @@
         <v>52</v>
       </c>
       <c r="AH238" t="s" s="2">
-        <v>44</v>
+        <v>959</v>
       </c>
       <c r="AI238" t="s" s="2">
         <v>64</v>
@@ -30616,21 +30667,21 @@
         <v>44</v>
       </c>
       <c r="AK238" t="s" s="2">
-        <v>983</v>
+        <v>44</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>984</v>
+        <v>864</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN238" t="s" s="2">
-        <v>44</v>
+        <v>960</v>
       </c>
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>985</v>
+        <v>961</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30650,23 +30701,27 @@
         <v>44</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>54</v>
+        <v>423</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>128</v>
+        <v>962</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M239" s="2"/>
+        <v>962</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>963</v>
+      </c>
       <c r="N239" s="2"/>
       <c r="O239" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P239" s="2"/>
+      <c r="P239" t="s" s="2">
+        <v>964</v>
+      </c>
       <c r="Q239" t="s" s="2">
         <v>44</v>
       </c>
@@ -30710,7 +30765,7 @@
         <v>44</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>130</v>
+        <v>965</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>42</v>
@@ -30719,10 +30774,10 @@
         <v>52</v>
       </c>
       <c r="AH239" t="s" s="2">
-        <v>44</v>
+        <v>959</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ239" t="s" s="2">
         <v>44</v>
@@ -30731,29 +30786,29 @@
         <v>44</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>131</v>
+        <v>879</v>
       </c>
       <c r="AM239" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN239" t="s" s="2">
-        <v>44</v>
+        <v>966</v>
       </c>
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F240" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>44</v>
@@ -30765,16 +30820,16 @@
         <v>44</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>97</v>
+        <v>707</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>133</v>
+        <v>968</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>134</v>
+        <v>969</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>113</v>
+        <v>970</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" t="s" s="2">
@@ -30812,51 +30867,51 @@
         <v>44</v>
       </c>
       <c r="AA240" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB240" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC240" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD240" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>136</v>
+        <v>967</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ240" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>44</v>
+        <v>971</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>131</v>
+        <v>972</v>
       </c>
       <c r="AM240" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN240" t="s" s="2">
-        <v>44</v>
+        <v>973</v>
       </c>
     </row>
-    <row r="241" hidden="true">
+    <row r="241">
       <c r="A241" t="s" s="2">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30870,29 +30925,25 @@
         <v>52</v>
       </c>
       <c r="G241" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I241" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>648</v>
+        <v>812</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>807</v>
-      </c>
+        <v>976</v>
+      </c>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
         <v>44</v>
       </c>
@@ -30940,7 +30991,7 @@
         <v>44</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>808</v>
+        <v>974</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>42</v>
@@ -30958,21 +31009,21 @@
         <v>44</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>44</v>
+        <v>977</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>809</v>
+        <v>978</v>
       </c>
       <c r="AM241" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN241" t="s" s="2">
-        <v>810</v>
+        <v>979</v>
       </c>
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30989,30 +31040,26 @@
         <v>44</v>
       </c>
       <c r="H242" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I242" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>812</v>
+        <v>128</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>990</v>
+        <v>129</v>
       </c>
       <c r="M242" s="2"/>
-      <c r="N242" t="s" s="2">
-        <v>814</v>
-      </c>
+      <c r="N242" s="2"/>
       <c r="O242" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P242" t="s" s="2">
-        <v>815</v>
-      </c>
+      <c r="P242" s="2"/>
       <c r="Q242" t="s" s="2">
         <v>44</v>
       </c>
@@ -31032,13 +31079,13 @@
         <v>44</v>
       </c>
       <c r="W242" t="s" s="2">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="X242" t="s" s="2">
-        <v>816</v>
+        <v>44</v>
       </c>
       <c r="Y242" t="s" s="2">
-        <v>817</v>
+        <v>44</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>44</v>
@@ -31056,7 +31103,7 @@
         <v>44</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>818</v>
+        <v>130</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>42</v>
@@ -31068,7 +31115,7 @@
         <v>44</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ242" t="s" s="2">
         <v>44</v>
@@ -31077,29 +31124,29 @@
         <v>44</v>
       </c>
       <c r="AL242" t="s" s="2">
-        <v>819</v>
+        <v>131</v>
       </c>
       <c r="AM242" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>820</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F243" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G243" t="s" s="2">
         <v>44</v>
@@ -31108,21 +31155,21 @@
         <v>44</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>992</v>
+        <v>133</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>992</v>
-      </c>
-      <c r="M243" s="2"/>
-      <c r="N243" t="s" s="2">
-        <v>823</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N243" s="2"/>
       <c r="O243" t="s" s="2">
         <v>44</v>
       </c>
@@ -31158,31 +31205,31 @@
         <v>44</v>
       </c>
       <c r="AA243" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB243" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC243" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD243" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>824</v>
+        <v>136</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG243" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH243" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI243" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ243" t="s" s="2">
         <v>44</v>
@@ -31191,18 +31238,18 @@
         <v>44</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>825</v>
+        <v>131</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN243" t="s" s="2">
-        <v>826</v>
+        <v>44</v>
       </c>
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -31225,17 +31272,19 @@
         <v>53</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>66</v>
+        <v>648</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>994</v>
-      </c>
-      <c r="M244" s="2"/>
+        <v>984</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>985</v>
+      </c>
       <c r="N244" t="s" s="2">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>44</v>
@@ -31245,7 +31294,7 @@
         <v>44</v>
       </c>
       <c r="R244" t="s" s="2">
-        <v>995</v>
+        <v>44</v>
       </c>
       <c r="S244" t="s" s="2">
         <v>44</v>
@@ -31284,7 +31333,7 @@
         <v>44</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>42</v>
@@ -31293,7 +31342,7 @@
         <v>52</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>831</v>
+        <v>44</v>
       </c>
       <c r="AI244" t="s" s="2">
         <v>64</v>
@@ -31305,18 +31354,18 @@
         <v>44</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="AM244" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN244" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -31327,13 +31376,13 @@
         <v>42</v>
       </c>
       <c r="F245" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H245" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I245" t="s" s="2">
         <v>53</v>
@@ -31342,21 +31391,21 @@
         <v>72</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>997</v>
+        <v>829</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>997</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>836</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="M245" s="2"/>
       <c r="N245" t="s" s="2">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P245" s="2"/>
+      <c r="P245" t="s" s="2">
+        <v>832</v>
+      </c>
       <c r="Q245" t="s" s="2">
         <v>44</v>
       </c>
@@ -31376,13 +31425,13 @@
         <v>44</v>
       </c>
       <c r="W245" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="X245" t="s" s="2">
-        <v>44</v>
+        <v>833</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>44</v>
+        <v>834</v>
       </c>
       <c r="Z245" t="s" s="2">
         <v>44</v>
@@ -31400,7 +31449,7 @@
         <v>44</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>42</v>
@@ -31421,18 +31470,18 @@
         <v>44</v>
       </c>
       <c r="AL245" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AM245" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN245" t="s" s="2">
-        <v>826</v>
+        <v>837</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31446,27 +31495,27 @@
         <v>52</v>
       </c>
       <c r="G246" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H246" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I246" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H246" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="I246" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="J246" t="s" s="2">
-        <v>242</v>
+        <v>54</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M246" t="s" s="2">
-        <v>1001</v>
-      </c>
-      <c r="N246" s="2"/>
+        <v>989</v>
+      </c>
+      <c r="M246" s="2"/>
+      <c r="N246" t="s" s="2">
+        <v>840</v>
+      </c>
       <c r="O246" t="s" s="2">
         <v>44</v>
       </c>
@@ -31514,7 +31563,7 @@
         <v>44</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>998</v>
+        <v>841</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>42</v>
@@ -31535,18 +31584,18 @@
         <v>44</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>1002</v>
+        <v>842</v>
       </c>
       <c r="AM246" t="s" s="2">
-        <v>465</v>
+        <v>44</v>
       </c>
       <c r="AN246" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31566,19 +31615,21 @@
         <v>44</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>128</v>
+        <v>991</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>129</v>
+        <v>992</v>
       </c>
       <c r="M247" s="2"/>
-      <c r="N247" s="2"/>
+      <c r="N247" t="s" s="2">
+        <v>846</v>
+      </c>
       <c r="O247" t="s" s="2">
         <v>44</v>
       </c>
@@ -31626,7 +31677,7 @@
         <v>44</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>130</v>
+        <v>847</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>42</v>
@@ -31635,10 +31686,10 @@
         <v>52</v>
       </c>
       <c r="AH247" t="s" s="2">
-        <v>44</v>
+        <v>848</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>44</v>
@@ -31647,29 +31698,29 @@
         <v>44</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>131</v>
+        <v>849</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN247" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F248" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G248" t="s" s="2">
         <v>44</v>
@@ -31678,21 +31729,23 @@
         <v>44</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>133</v>
+        <v>994</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>134</v>
+        <v>995</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N248" s="2"/>
+        <v>853</v>
+      </c>
+      <c r="N248" t="s" s="2">
+        <v>854</v>
+      </c>
       <c r="O248" t="s" s="2">
         <v>44</v>
       </c>
@@ -31728,31 +31781,31 @@
         <v>44</v>
       </c>
       <c r="AA248" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB248" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC248" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD248" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>136</v>
+        <v>855</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>44</v>
@@ -31761,18 +31814,18 @@
         <v>44</v>
       </c>
       <c r="AL248" t="s" s="2">
-        <v>131</v>
+        <v>856</v>
       </c>
       <c r="AM248" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN248" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
-    <row r="249" hidden="true">
+    <row r="249">
       <c r="A249" t="s" s="2">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31786,25 +31839,25 @@
         <v>52</v>
       </c>
       <c r="G249" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H249" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I249" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>54</v>
+        <v>940</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>253</v>
+        <v>998</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>254</v>
+        <v>999</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" t="s" s="2">
@@ -31854,7 +31907,7 @@
         <v>44</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>255</v>
+        <v>996</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>42</v>
@@ -31863,7 +31916,7 @@
         <v>52</v>
       </c>
       <c r="AH249" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AI249" t="s" s="2">
         <v>64</v>
@@ -31872,10 +31925,10 @@
         <v>44</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL249" t="s" s="2">
-        <v>95</v>
+        <v>1001</v>
       </c>
       <c r="AM249" t="s" s="2">
         <v>44</v>
@@ -31886,7 +31939,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31906,20 +31959,18 @@
         <v>44</v>
       </c>
       <c r="I250" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M250" s="2"/>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
         <v>44</v>
@@ -31944,13 +31995,13 @@
         <v>44</v>
       </c>
       <c r="W250" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>44</v>
@@ -31968,7 +32019,7 @@
         <v>44</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>42</v>
@@ -31980,7 +32031,7 @@
         <v>44</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>44</v>
@@ -31989,7 +32040,7 @@
         <v>44</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="AM250" t="s" s="2">
         <v>44</v>
@@ -32000,18 +32051,18 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F251" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G251" t="s" s="2">
         <v>44</v>
@@ -32020,19 +32071,19 @@
         <v>44</v>
       </c>
       <c r="I251" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
@@ -32070,31 +32121,31 @@
         <v>44</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB251" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC251" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>268</v>
+        <v>136</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>44</v>
@@ -32103,7 +32154,7 @@
         <v>44</v>
       </c>
       <c r="AL251" t="s" s="2">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="AM251" t="s" s="2">
         <v>44</v>
@@ -32114,7 +32165,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -32137,18 +32188,20 @@
         <v>53</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>54</v>
+        <v>648</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>388</v>
+        <v>1005</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N252" s="2"/>
+        <v>823</v>
+      </c>
+      <c r="N252" t="s" s="2">
+        <v>824</v>
+      </c>
       <c r="O252" t="s" s="2">
         <v>44</v>
       </c>
@@ -32196,7 +32249,7 @@
         <v>44</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>274</v>
+        <v>825</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>42</v>
@@ -32217,18 +32270,18 @@
         <v>44</v>
       </c>
       <c r="AL252" t="s" s="2">
-        <v>95</v>
+        <v>826</v>
       </c>
       <c r="AM252" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN252" t="s" s="2">
-        <v>44</v>
+        <v>827</v>
       </c>
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -32245,26 +32298,30 @@
         <v>44</v>
       </c>
       <c r="H253" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I253" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>902</v>
+        <v>72</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>1012</v>
+        <v>829</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="M253" s="2"/>
-      <c r="N253" s="2"/>
+      <c r="N253" t="s" s="2">
+        <v>831</v>
+      </c>
       <c r="O253" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="P253" s="2"/>
+      <c r="P253" t="s" s="2">
+        <v>832</v>
+      </c>
       <c r="Q253" t="s" s="2">
         <v>44</v>
       </c>
@@ -32284,13 +32341,13 @@
         <v>44</v>
       </c>
       <c r="W253" t="s" s="2">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>44</v>
+        <v>833</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>44</v>
+        <v>834</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>44</v>
@@ -32308,7 +32365,7 @@
         <v>44</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>1011</v>
+        <v>835</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>42</v>
@@ -32326,21 +32383,21 @@
         <v>44</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>1014</v>
+        <v>44</v>
       </c>
       <c r="AL253" t="s" s="2">
-        <v>1015</v>
+        <v>836</v>
       </c>
       <c r="AM253" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN253" t="s" s="2">
-        <v>44</v>
+        <v>837</v>
       </c>
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -32360,19 +32417,21 @@
         <v>44</v>
       </c>
       <c r="I254" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J254" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>128</v>
+        <v>1009</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>129</v>
+        <v>1009</v>
       </c>
       <c r="M254" s="2"/>
-      <c r="N254" s="2"/>
+      <c r="N254" t="s" s="2">
+        <v>840</v>
+      </c>
       <c r="O254" t="s" s="2">
         <v>44</v>
       </c>
@@ -32420,7 +32479,7 @@
         <v>44</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>130</v>
+        <v>841</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>42</v>
@@ -32432,7 +32491,7 @@
         <v>44</v>
       </c>
       <c r="AI254" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ254" t="s" s="2">
         <v>44</v>
@@ -32441,29 +32500,29 @@
         <v>44</v>
       </c>
       <c r="AL254" t="s" s="2">
-        <v>131</v>
+        <v>842</v>
       </c>
       <c r="AM254" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN254" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F255" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G255" t="s" s="2">
         <v>44</v>
@@ -32472,21 +32531,21 @@
         <v>44</v>
       </c>
       <c r="I255" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>133</v>
+        <v>1011</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N255" s="2"/>
+        <v>1011</v>
+      </c>
+      <c r="M255" s="2"/>
+      <c r="N255" t="s" s="2">
+        <v>846</v>
+      </c>
       <c r="O255" t="s" s="2">
         <v>44</v>
       </c>
@@ -32495,7 +32554,7 @@
         <v>44</v>
       </c>
       <c r="R255" t="s" s="2">
-        <v>44</v>
+        <v>1012</v>
       </c>
       <c r="S255" t="s" s="2">
         <v>44</v>
@@ -32534,19 +32593,19 @@
         <v>44</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>136</v>
+        <v>847</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG255" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH255" t="s" s="2">
-        <v>44</v>
+        <v>848</v>
       </c>
       <c r="AI255" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ255" t="s" s="2">
         <v>44</v>
@@ -32555,53 +32614,53 @@
         <v>44</v>
       </c>
       <c r="AL255" t="s" s="2">
-        <v>131</v>
+        <v>849</v>
       </c>
       <c r="AM255" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN255" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
-        <v>571</v>
+        <v>44</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F256" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G256" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H256" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I256" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>572</v>
+        <v>1014</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>573</v>
+        <v>1014</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>113</v>
+        <v>853</v>
       </c>
       <c r="N256" t="s" s="2">
-        <v>114</v>
+        <v>854</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>44</v>
@@ -32650,19 +32709,19 @@
         <v>44</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>574</v>
+        <v>855</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI256" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ256" t="s" s="2">
         <v>44</v>
@@ -32671,18 +32730,18 @@
         <v>44</v>
       </c>
       <c r="AL256" t="s" s="2">
-        <v>95</v>
+        <v>856</v>
       </c>
       <c r="AM256" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN256" t="s" s="2">
-        <v>44</v>
+        <v>843</v>
       </c>
     </row>
-    <row r="257" hidden="true">
+    <row r="257">
       <c r="A257" t="s" s="2">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32690,13 +32749,13 @@
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F257" t="s" s="2">
         <v>52</v>
       </c>
       <c r="G257" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H257" t="s" s="2">
         <v>44</v>
@@ -32705,16 +32764,16 @@
         <v>44</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>1020</v>
+        <v>242</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" t="s" s="2">
@@ -32740,13 +32799,13 @@
         <v>44</v>
       </c>
       <c r="W257" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="X257" t="s" s="2">
-        <v>1024</v>
+        <v>44</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>1025</v>
+        <v>44</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>44</v>
@@ -32764,10 +32823,10 @@
         <v>44</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>52</v>
@@ -32782,21 +32841,21 @@
         <v>44</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>1014</v>
+        <v>44</v>
       </c>
       <c r="AL257" t="s" s="2">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="AM257" t="s" s="2">
-        <v>44</v>
+        <v>465</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>1027</v>
+        <v>44</v>
       </c>
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32819,13 +32878,13 @@
         <v>44</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>1029</v>
+        <v>128</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>1030</v>
+        <v>129</v>
       </c>
       <c r="M258" s="2"/>
       <c r="N258" s="2"/>
@@ -32852,13 +32911,13 @@
         <v>44</v>
       </c>
       <c r="W258" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="X258" t="s" s="2">
-        <v>1031</v>
+        <v>44</v>
       </c>
       <c r="Y258" t="s" s="2">
-        <v>1032</v>
+        <v>44</v>
       </c>
       <c r="Z258" t="s" s="2">
         <v>44</v>
@@ -32876,7 +32935,7 @@
         <v>44</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>1028</v>
+        <v>130</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>42</v>
@@ -32888,41 +32947,41 @@
         <v>44</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>1033</v>
+        <v>44</v>
       </c>
       <c r="AL258" t="s" s="2">
-        <v>1034</v>
+        <v>131</v>
       </c>
       <c r="AM258" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN258" t="s" s="2">
-        <v>1035</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F259" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G259" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H259" t="s" s="2">
         <v>44</v>
@@ -32931,15 +32990,17 @@
         <v>44</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>1037</v>
+        <v>97</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>1038</v>
+        <v>133</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>1038</v>
-      </c>
-      <c r="M259" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M259" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N259" s="2"/>
       <c r="O259" t="s" s="2">
         <v>44</v>
@@ -32976,40 +33037,40 @@
         <v>44</v>
       </c>
       <c r="AA259" t="s" s="2">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AB259" t="s" s="2">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="AC259" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD259" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>1036</v>
+        <v>136</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ259" t="s" s="2">
-        <v>1039</v>
+        <v>44</v>
       </c>
       <c r="AK259" t="s" s="2">
-        <v>1033</v>
+        <v>44</v>
       </c>
       <c r="AL259" t="s" s="2">
-        <v>1040</v>
+        <v>131</v>
       </c>
       <c r="AM259" t="s" s="2">
         <v>44</v>
@@ -33020,7 +33081,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>1041</v>
+        <v>1022</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -33040,18 +33101,20 @@
         <v>44</v>
       </c>
       <c r="I260" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J260" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>128</v>
+        <v>1023</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M260" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="M260" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="N260" s="2"/>
       <c r="O260" t="s" s="2">
         <v>44</v>
@@ -33100,7 +33163,7 @@
         <v>44</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>42</v>
@@ -33109,10 +33172,10 @@
         <v>52</v>
       </c>
       <c r="AH260" t="s" s="2">
-        <v>44</v>
+        <v>256</v>
       </c>
       <c r="AI260" t="s" s="2">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="AJ260" t="s" s="2">
         <v>44</v>
@@ -33121,7 +33184,7 @@
         <v>44</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="AM260" t="s" s="2">
         <v>44</v>
@@ -33132,18 +33195,18 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F261" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G261" t="s" s="2">
         <v>44</v>
@@ -33152,19 +33215,19 @@
         <v>44</v>
       </c>
       <c r="I261" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
@@ -33190,43 +33253,43 @@
         <v>44</v>
       </c>
       <c r="W261" t="s" s="2">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="X261" t="s" s="2">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="Y261" t="s" s="2">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="Z261" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AA261" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AB261" t="s" s="2">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="AC261" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD261" t="s" s="2">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG261" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH261" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI261" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AJ261" t="s" s="2">
         <v>44</v>
@@ -33235,7 +33298,7 @@
         <v>44</v>
       </c>
       <c r="AL261" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="AM261" t="s" s="2">
         <v>44</v>
@@ -33246,7 +33309,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -33269,16 +33332,16 @@
         <v>53</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>1044</v>
+        <v>265</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>1044</v>
+        <v>266</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" t="s" s="2">
@@ -33328,7 +33391,7 @@
         <v>44</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>42</v>
@@ -33337,7 +33400,7 @@
         <v>52</v>
       </c>
       <c r="AH262" t="s" s="2">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="AI262" t="s" s="2">
         <v>64</v>
@@ -33349,7 +33412,7 @@
         <v>44</v>
       </c>
       <c r="AL262" t="s" s="2">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="AM262" t="s" s="2">
         <v>44</v>
@@ -33360,7 +33423,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>1045</v>
+        <v>1026</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -33383,16 +33446,16 @@
         <v>53</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>258</v>
+        <v>1027</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>259</v>
+        <v>388</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" t="s" s="2">
@@ -33418,13 +33481,13 @@
         <v>44</v>
       </c>
       <c r="W263" t="s" s="2">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="X263" t="s" s="2">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="Y263" t="s" s="2">
-        <v>262</v>
+        <v>44</v>
       </c>
       <c r="Z263" t="s" s="2">
         <v>44</v>
@@ -33442,7 +33505,7 @@
         <v>44</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>42</v>
@@ -33474,7 +33537,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33494,20 +33557,18 @@
         <v>44</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>118</v>
+        <v>919</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>265</v>
+        <v>1029</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M264" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="M264" s="2"/>
       <c r="N264" s="2"/>
       <c r="O264" t="s" s="2">
         <v>44</v>
@@ -33556,7 +33617,7 @@
         <v>44</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>268</v>
+        <v>1028</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>42</v>
@@ -33574,10 +33635,10 @@
         <v>44</v>
       </c>
       <c r="AK264" t="s" s="2">
-        <v>44</v>
+        <v>1031</v>
       </c>
       <c r="AL264" t="s" s="2">
-        <v>269</v>
+        <v>1032</v>
       </c>
       <c r="AM264" t="s" s="2">
         <v>44</v>
@@ -33588,7 +33649,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33608,20 +33669,18 @@
         <v>44</v>
       </c>
       <c r="I265" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J265" t="s" s="2">
         <v>54</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>1010</v>
+        <v>128</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M265" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M265" s="2"/>
       <c r="N265" s="2"/>
       <c r="O265" t="s" s="2">
         <v>44</v>
@@ -33670,7 +33729,7 @@
         <v>44</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>42</v>
@@ -33682,7 +33741,7 @@
         <v>44</v>
       </c>
       <c r="AI265" t="s" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="AJ265" t="s" s="2">
         <v>44</v>
@@ -33691,7 +33750,7 @@
         <v>44</v>
       </c>
       <c r="AL265" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="AM265" t="s" s="2">
         <v>44</v>
@@ -33702,11 +33761,11 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
-        <v>1049</v>
+        <v>110</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -33725,16 +33784,16 @@
         <v>44</v>
       </c>
       <c r="J266" t="s" s="2">
-        <v>1050</v>
+        <v>97</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>1051</v>
+        <v>133</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>1052</v>
+        <v>134</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>1053</v>
+        <v>113</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
@@ -33784,7 +33843,7 @@
         <v>44</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>1048</v>
+        <v>136</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>42</v>
@@ -33796,7 +33855,7 @@
         <v>44</v>
       </c>
       <c r="AI266" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AJ266" t="s" s="2">
         <v>44</v>
@@ -33805,7 +33864,7 @@
         <v>44</v>
       </c>
       <c r="AL266" t="s" s="2">
-        <v>1054</v>
+        <v>131</v>
       </c>
       <c r="AM266" t="s" s="2">
         <v>44</v>
@@ -33816,11 +33875,11 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>1055</v>
+        <v>1035</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
-        <v>44</v>
+        <v>571</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -33833,24 +33892,26 @@
         <v>44</v>
       </c>
       <c r="H267" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I267" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>1056</v>
+        <v>97</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>1057</v>
+        <v>572</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>1058</v>
+        <v>573</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>1059</v>
-      </c>
-      <c r="N267" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N267" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O267" t="s" s="2">
         <v>44</v>
       </c>
@@ -33898,7 +33959,7 @@
         <v>44</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>1055</v>
+        <v>574</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>42</v>
@@ -33910,26 +33971,1274 @@
         <v>44</v>
       </c>
       <c r="AI267" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ267" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK267" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL267" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM267" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN267" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" hidden="true">
+      <c r="A268" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="B268" s="2"/>
+      <c r="C268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D268" s="2"/>
+      <c r="E268" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F268" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J268" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="K268" t="s" s="2">
+        <v>1038</v>
+      </c>
+      <c r="L268" t="s" s="2">
+        <v>1039</v>
+      </c>
+      <c r="M268" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="N268" s="2"/>
+      <c r="O268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P268" s="2"/>
+      <c r="Q268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W268" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="X268" t="s" s="2">
+        <v>1041</v>
+      </c>
+      <c r="Y268" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="Z268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE268" t="s" s="2">
+        <v>1036</v>
+      </c>
+      <c r="AF268" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG268" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI268" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="AJ267" t="s" s="2">
+      <c r="AJ268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK268" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="AL268" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="AM268" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN268" t="s" s="2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="269" hidden="true">
+      <c r="A269" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="B269" s="2"/>
+      <c r="C269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D269" s="2"/>
+      <c r="E269" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F269" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J269" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K269" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="L269" t="s" s="2">
+        <v>1047</v>
+      </c>
+      <c r="M269" s="2"/>
+      <c r="N269" s="2"/>
+      <c r="O269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P269" s="2"/>
+      <c r="Q269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W269" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="X269" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="Y269" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="Z269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE269" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="AF269" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG269" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI269" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK269" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="AL269" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="AM269" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN269" t="s" s="2">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D270" s="2"/>
+      <c r="E270" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F270" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G270" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="H270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J270" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="K270" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="L270" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="M270" s="2"/>
+      <c r="N270" s="2"/>
+      <c r="O270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P270" s="2"/>
+      <c r="Q270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE270" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="AF270" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG270" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI270" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ270" t="s" s="2">
+        <v>1056</v>
+      </c>
+      <c r="AK270" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="AL270" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="AM270" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN270" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="271" hidden="true">
+      <c r="A271" t="s" s="2">
+        <v>1058</v>
+      </c>
+      <c r="B271" s="2"/>
+      <c r="C271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D271" s="2"/>
+      <c r="E271" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F271" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J271" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K271" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L271" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M271" s="2"/>
+      <c r="N271" s="2"/>
+      <c r="O271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P271" s="2"/>
+      <c r="Q271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE271" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AF271" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG271" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL271" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM271" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN271" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="272" hidden="true">
+      <c r="A272" t="s" s="2">
+        <v>1059</v>
+      </c>
+      <c r="B272" s="2"/>
+      <c r="C272" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F272" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J272" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K272" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L272" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M272" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N272" s="2"/>
+      <c r="O272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P272" s="2"/>
+      <c r="Q272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA272" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB272" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD272" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE272" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF272" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG272" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI272" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL272" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM272" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN272" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="273" hidden="true">
+      <c r="A273" t="s" s="2">
         <v>1060</v>
       </c>
-      <c r="AK267" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL267" t="s" s="2">
+      <c r="B273" s="2"/>
+      <c r="C273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F273" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I273" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J273" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K273" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="AM267" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN267" t="s" s="2">
+      <c r="L273" t="s" s="2">
+        <v>1061</v>
+      </c>
+      <c r="M273" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="N273" s="2"/>
+      <c r="O273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P273" s="2"/>
+      <c r="Q273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE273" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF273" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG273" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH273" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AI273" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL273" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM273" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN273" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274" hidden="true">
+      <c r="A274" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="B274" s="2"/>
+      <c r="C274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D274" s="2"/>
+      <c r="E274" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F274" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I274" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J274" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K274" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L274" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M274" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N274" s="2"/>
+      <c r="O274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P274" s="2"/>
+      <c r="Q274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W274" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X274" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y274" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Z274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE274" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF274" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG274" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI274" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL274" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM274" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN274" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275" hidden="true">
+      <c r="A275" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="B275" s="2"/>
+      <c r="C275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D275" s="2"/>
+      <c r="E275" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F275" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I275" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J275" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K275" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L275" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M275" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N275" s="2"/>
+      <c r="O275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P275" s="2"/>
+      <c r="Q275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE275" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF275" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG275" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI275" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL275" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM275" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN275" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" hidden="true">
+      <c r="A276" t="s" s="2">
+        <v>1064</v>
+      </c>
+      <c r="B276" s="2"/>
+      <c r="C276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D276" s="2"/>
+      <c r="E276" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F276" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I276" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J276" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K276" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="L276" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M276" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N276" s="2"/>
+      <c r="O276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P276" s="2"/>
+      <c r="Q276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE276" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF276" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG276" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI276" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL276" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AM276" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN276" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="277" hidden="true">
+      <c r="A277" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="D277" s="2"/>
+      <c r="E277" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J277" t="s" s="2">
+        <v>1067</v>
+      </c>
+      <c r="K277" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="L277" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="M277" t="s" s="2">
+        <v>1070</v>
+      </c>
+      <c r="N277" s="2"/>
+      <c r="O277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P277" s="2"/>
+      <c r="Q277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE277" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="AF277" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI277" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL277" t="s" s="2">
+        <v>1071</v>
+      </c>
+      <c r="AM277" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN277" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="278" hidden="true">
+      <c r="A278" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="B278" s="2"/>
+      <c r="C278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D278" s="2"/>
+      <c r="E278" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J278" t="s" s="2">
+        <v>1073</v>
+      </c>
+      <c r="K278" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="L278" t="s" s="2">
+        <v>1075</v>
+      </c>
+      <c r="M278" t="s" s="2">
+        <v>1076</v>
+      </c>
+      <c r="N278" s="2"/>
+      <c r="O278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P278" s="2"/>
+      <c r="Q278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE278" t="s" s="2">
+        <v>1072</v>
+      </c>
+      <c r="AF278" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI278" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ278" t="s" s="2">
+        <v>1077</v>
+      </c>
+      <c r="AK278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL278" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="AM278" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN278" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN267">
+  <autoFilter ref="A1:AN278">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -33939,7 +35248,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI266">
+  <conditionalFormatting sqref="A2:AI277">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-RecetaPrescripcionCl.xlsx
+++ b/output/StructureDefinition-RecetaPrescripcionCl.xlsx
@@ -34584,7 +34584,7 @@
         <v>1061</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>1061</v>
+        <v>253</v>
       </c>
       <c r="M273" t="s" s="2">
         <v>254</v>

--- a/output/StructureDefinition-RecetaPrescripcionCl.xlsx
+++ b/output/StructureDefinition-RecetaPrescripcionCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9161" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9160" uniqueCount="1066">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T09:28:53-03:00</t>
+    <t>2022-09-30T09:32:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -17610,13 +17610,11 @@
         <v>77</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>77</v>
+        <v>562</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>77</v>

--- a/output/StructureDefinition-RecetaPrescripcionCl.xlsx
+++ b/output/StructureDefinition-RecetaPrescripcionCl.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9373" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9373" uniqueCount="1044">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T00:05:31-03:00</t>
+    <t>2023-09-05T15:26:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1135,8 +1135,8 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
-</t>
+    <t>CodeableConcept
+Reference(Medication)</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -1156,9 +1156,6 @@
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1188,10 +1185,14 @@
     <t>medicationReference</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Medication)
+</t>
+  </si>
+  <si>
     <t>Referencia al medicamento que se prescribe.</t>
   </si>
   <si>
-    <t>Referencia al medicamento que se prescribe, la cual se encuentra disponible en el servicio de la TFC.</t>
+    <t>Referencia al medicamento que se prescribe, la cual se encuentra disponible en el //servicio de la TFC.</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationReference.id</t>
@@ -1212,7 +1213,7 @@
     <t>MedicationRequest.medication[x].reference</t>
   </si>
   <si>
-    <t>uri del recurso. Para el caso el repositorio se encuentra en "https://api-receta.minsal.cl/v2/Medication"</t>
+    <t>uri del recurso. Para el caso el repositorio se encuentra en "https:////api-receta.minsal.cl/v2/Medication"</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationReference.type</t>
@@ -1984,6 +1985,9 @@
   </si>
   <si>
     <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Timing.repeat.bounds[x]</t>
@@ -11272,7 +11276,7 @@
         <v>37</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>366</v>
+        <v>95</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>358</v>
@@ -11290,37 +11294,37 @@
         <v>58</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>358</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>46</v>
@@ -11335,7 +11339,7 @@
         <v>47</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>374</v>
@@ -11409,19 +11413,19 @@
         <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="68" hidden="true">
@@ -20374,10 +20378,10 @@
         <v>37</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>366</v>
+        <v>633</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>35</v>
@@ -20398,7 +20402,7 @@
         <v>37</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>37</v>
@@ -20409,13 +20413,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>629</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>37</v>
@@ -20437,7 +20441,7 @@
         <v>47</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L145" t="s" s="2">
         <v>631</v>
@@ -20494,7 +20498,7 @@
         <v>37</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>35</v>
@@ -20515,7 +20519,7 @@
         <v>37</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>37</v>
@@ -20526,13 +20530,13 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>629</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>37</v>
@@ -20554,7 +20558,7 @@
         <v>47</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L146" t="s" s="2">
         <v>631</v>
@@ -20611,7 +20615,7 @@
         <v>37</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>35</v>
@@ -20632,7 +20636,7 @@
         <v>37</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>37</v>
@@ -20643,13 +20647,13 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>629</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>37</v>
@@ -20728,7 +20732,7 @@
         <v>37</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>35</v>
@@ -20749,7 +20753,7 @@
         <v>37</v>
       </c>
       <c r="AM147" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AN147" t="s" s="2">
         <v>37</v>
@@ -20760,10 +20764,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20786,19 +20790,19 @@
         <v>47</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>37</v>
@@ -20847,7 +20851,7 @@
         <v>37</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>35</v>
@@ -20868,7 +20872,7 @@
         <v>37</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>37</v>
@@ -20879,10 +20883,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20905,13 +20909,13 @@
         <v>47</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -20962,7 +20966,7 @@
         <v>37</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>35</v>
@@ -20983,7 +20987,7 @@
         <v>37</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>37</v>
@@ -20994,10 +20998,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21020,19 +21024,19 @@
         <v>47</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>37</v>
@@ -21081,7 +21085,7 @@
         <v>37</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>35</v>
@@ -21102,7 +21106,7 @@
         <v>37</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>37</v>
@@ -21113,10 +21117,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21139,19 +21143,19 @@
         <v>47</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>37</v>
@@ -21200,7 +21204,7 @@
         <v>37</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>35</v>
@@ -21221,7 +21225,7 @@
         <v>37</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>37</v>
@@ -21232,10 +21236,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21261,10 +21265,10 @@
         <v>66</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -21294,10 +21298,10 @@
         <v>138</v>
       </c>
       <c r="Y152" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z152" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AA152" t="s" s="2">
         <v>37</v>
@@ -21315,7 +21319,7 @@
         <v>37</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>35</v>
@@ -21336,7 +21340,7 @@
         <v>37</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>37</v>
@@ -21347,10 +21351,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21373,13 +21377,13 @@
         <v>47</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21387,7 +21391,7 @@
         <v>37</v>
       </c>
       <c r="Q153" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="R153" t="s" s="2">
         <v>37</v>
@@ -21432,7 +21436,7 @@
         <v>37</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>35</v>
@@ -21453,7 +21457,7 @@
         <v>37</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>37</v>
@@ -21464,10 +21468,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21490,13 +21494,13 @@
         <v>47</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21547,7 +21551,7 @@
         <v>37</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>35</v>
@@ -21568,7 +21572,7 @@
         <v>37</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>37</v>
@@ -21579,10 +21583,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21605,13 +21609,13 @@
         <v>47</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -21662,7 +21666,7 @@
         <v>37</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>35</v>
@@ -21683,7 +21687,7 @@
         <v>37</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>37</v>
@@ -21694,10 +21698,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21720,13 +21724,13 @@
         <v>47</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21777,7 +21781,7 @@
         <v>37</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>35</v>
@@ -21798,7 +21802,7 @@
         <v>37</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>37</v>
@@ -21809,10 +21813,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21838,10 +21842,10 @@
         <v>66</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -21872,7 +21876,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>37</v>
@@ -21890,7 +21894,7 @@
         <v>37</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>35</v>
@@ -21911,7 +21915,7 @@
         <v>37</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>37</v>
@@ -21922,10 +21926,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21951,13 +21955,13 @@
         <v>66</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -21987,7 +21991,7 @@
       </c>
       <c r="Y158" s="2"/>
       <c r="Z158" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>37</v>
@@ -22005,7 +22009,7 @@
         <v>37</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>35</v>
@@ -22037,10 +22041,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22063,16 +22067,16 @@
         <v>47</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22122,7 +22126,7 @@
         <v>37</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>35</v>
@@ -22154,10 +22158,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22183,16 +22187,16 @@
         <v>66</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>37</v>
@@ -22220,10 +22224,10 @@
         <v>138</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>37</v>
@@ -22241,7 +22245,7 @@
         <v>37</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>35</v>
@@ -22262,7 +22266,7 @@
         <v>37</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>37</v>
@@ -22273,10 +22277,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22299,13 +22303,13 @@
         <v>47</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -22356,7 +22360,7 @@
         <v>37</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>35</v>
@@ -22377,7 +22381,7 @@
         <v>37</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>37</v>
@@ -22388,10 +22392,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22417,13 +22421,13 @@
         <v>144</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" t="s" s="2">
@@ -22452,10 +22456,10 @@
         <v>70</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>37</v>
@@ -22473,7 +22477,7 @@
         <v>37</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>35</v>
@@ -22494,7 +22498,7 @@
         <v>37</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>37</v>
@@ -22505,10 +22509,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22531,16 +22535,16 @@
         <v>47</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O163" s="2"/>
       <c r="P163" t="s" s="2">
@@ -22569,10 +22573,10 @@
         <v>284</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>37</v>
@@ -22588,7 +22592,7 @@
         <v>95</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>35</v>
@@ -22609,24 +22613,24 @@
         <v>37</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>37</v>
@@ -22651,13 +22655,13 @@
         <v>197</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
@@ -22707,7 +22711,7 @@
         <v>37</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>35</v>
@@ -22728,21 +22732,21 @@
         <v>37</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22768,16 +22772,16 @@
         <v>144</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>37</v>
@@ -22805,10 +22809,10 @@
         <v>284</v>
       </c>
       <c r="Y165" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="Z165" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>37</v>
@@ -22826,7 +22830,7 @@
         <v>37</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>35</v>
@@ -22847,21 +22851,21 @@
         <v>37</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22887,14 +22891,14 @@
         <v>144</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>37</v>
@@ -22922,10 +22926,10 @@
         <v>284</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>37</v>
@@ -22943,7 +22947,7 @@
         <v>37</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>35</v>
@@ -22964,21 +22968,21 @@
         <v>37</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23090,10 +23094,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23207,10 +23211,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23326,10 +23330,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23441,10 +23445,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23558,10 +23562,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23587,10 +23591,10 @@
         <v>60</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>169</v>
@@ -23677,10 +23681,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23794,10 +23798,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23823,10 +23827,10 @@
         <v>66</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
@@ -23859,7 +23863,7 @@
       </c>
       <c r="Y174" s="2"/>
       <c r="Z174" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>37</v>
@@ -23909,10 +23913,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24026,10 +24030,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24145,10 +24149,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24264,10 +24268,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24293,16 +24297,16 @@
         <v>144</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O178" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>37</v>
@@ -24330,10 +24334,10 @@
         <v>284</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>37</v>
@@ -24351,7 +24355,7 @@
         <v>37</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>35</v>
@@ -24372,21 +24376,21 @@
         <v>37</v>
       </c>
       <c r="AM178" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AN178" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24498,10 +24502,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24615,10 +24619,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24734,10 +24738,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24849,10 +24853,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -24966,10 +24970,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24995,10 +24999,10 @@
         <v>60</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="N184" t="s" s="2">
         <v>169</v>
@@ -25085,10 +25089,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25202,10 +25206,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25231,10 +25235,10 @@
         <v>66</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -25267,7 +25271,7 @@
       </c>
       <c r="Y186" s="2"/>
       <c r="Z186" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="AA186" t="s" s="2">
         <v>37</v>
@@ -25317,10 +25321,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25434,10 +25438,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25553,10 +25557,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25672,10 +25676,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25701,10 +25705,10 @@
         <v>620</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25755,7 +25759,7 @@
         <v>37</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>35</v>
@@ -25782,15 +25786,15 @@
         <v>37</v>
       </c>
       <c r="AO190" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25902,10 +25906,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26019,10 +26023,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26048,14 +26052,14 @@
         <v>144</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>37</v>
@@ -26083,10 +26087,10 @@
         <v>284</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>37</v>
@@ -26104,7 +26108,7 @@
         <v>37</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>35</v>
@@ -26131,15 +26135,15 @@
         <v>37</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26162,19 +26166,19 @@
         <v>47</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>37</v>
@@ -26223,7 +26227,7 @@
         <v>37</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>35</v>
@@ -26244,21 +26248,21 @@
         <v>37</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO194" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26281,19 +26285,19 @@
         <v>47</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>37</v>
@@ -26342,7 +26346,7 @@
         <v>37</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>35</v>
@@ -26363,21 +26367,21 @@
         <v>37</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="AN195" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO195" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26400,19 +26404,19 @@
         <v>47</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>37</v>
@@ -26461,7 +26465,7 @@
         <v>37</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>35</v>
@@ -26482,21 +26486,21 @@
         <v>37</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO196" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26519,19 +26523,19 @@
         <v>47</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="O197" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>37</v>
@@ -26580,7 +26584,7 @@
         <v>37</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>35</v>
@@ -26601,7 +26605,7 @@
         <v>37</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>37</v>
@@ -26612,10 +26616,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26638,17 +26642,17 @@
         <v>47</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>37</v>
@@ -26697,7 +26701,7 @@
         <v>37</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>35</v>
@@ -26718,7 +26722,7 @@
         <v>37</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>37</v>
@@ -26729,10 +26733,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26755,13 +26759,13 @@
         <v>37</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -26812,7 +26816,7 @@
         <v>37</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>35</v>
@@ -26830,10 +26834,10 @@
         <v>37</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>37</v>
@@ -26844,10 +26848,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26959,10 +26963,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27076,10 +27080,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27195,10 +27199,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27221,16 +27225,16 @@
         <v>37</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
@@ -27280,7 +27284,7 @@
         <v>37</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>35</v>
@@ -27301,7 +27305,7 @@
         <v>37</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="AN203" t="s" s="2">
         <v>37</v>
@@ -27312,10 +27316,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27427,10 +27431,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27544,10 +27548,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27663,10 +27667,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27689,13 +27693,13 @@
         <v>37</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -27746,7 +27750,7 @@
         <v>37</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>35</v>
@@ -27767,7 +27771,7 @@
         <v>37</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>37</v>
@@ -27778,10 +27782,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27804,13 +27808,13 @@
         <v>37</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
@@ -27861,7 +27865,7 @@
         <v>37</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>35</v>
@@ -27882,7 +27886,7 @@
         <v>37</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>37</v>
@@ -27893,10 +27897,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -27919,13 +27923,13 @@
         <v>37</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
@@ -27976,7 +27980,7 @@
         <v>37</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>35</v>
@@ -27997,7 +28001,7 @@
         <v>37</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>37</v>
@@ -28008,10 +28012,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28037,16 +28041,16 @@
         <v>231</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>37</v>
@@ -28095,7 +28099,7 @@
         <v>37</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>35</v>
@@ -28113,10 +28117,10 @@
         <v>37</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>37</v>
@@ -28127,10 +28131,10 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28242,10 +28246,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28359,10 +28363,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28388,13 +28392,13 @@
         <v>425</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
@@ -28444,7 +28448,7 @@
         <v>37</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>35</v>
@@ -28453,7 +28457,7 @@
         <v>46</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AJ213" t="s" s="2">
         <v>58</v>
@@ -28465,21 +28469,21 @@
         <v>37</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO213" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -28505,20 +28509,20 @@
         <v>425</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q214" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="R214" t="s" s="2">
         <v>37</v>
@@ -28563,7 +28567,7 @@
         <v>37</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>35</v>
@@ -28572,7 +28576,7 @@
         <v>46</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>58</v>
@@ -28584,21 +28588,21 @@
         <v>37</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AN214" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO214" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28621,16 +28625,16 @@
         <v>37</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
@@ -28680,7 +28684,7 @@
         <v>37</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>35</v>
@@ -28698,24 +28702,24 @@
         <v>37</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO215" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28738,13 +28742,13 @@
         <v>37</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -28795,7 +28799,7 @@
         <v>37</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>35</v>
@@ -28813,24 +28817,24 @@
         <v>37</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO216" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28942,10 +28946,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -29059,10 +29063,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29085,19 +29089,19 @@
         <v>47</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>37</v>
@@ -29146,7 +29150,7 @@
         <v>37</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>35</v>
@@ -29167,21 +29171,21 @@
         <v>37</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AN219" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -29207,20 +29211,20 @@
         <v>66</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="P220" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q220" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="R220" t="s" s="2">
         <v>37</v>
@@ -29244,10 +29248,10 @@
         <v>138</v>
       </c>
       <c r="Y220" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="Z220" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>37</v>
@@ -29265,7 +29269,7 @@
         <v>37</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>35</v>
@@ -29286,21 +29290,21 @@
         <v>37</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -29326,14 +29330,14 @@
         <v>123</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>37</v>
@@ -29382,7 +29386,7 @@
         <v>37</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>35</v>
@@ -29403,21 +29407,21 @@
         <v>37</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO221" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -29443,14 +29447,14 @@
         <v>60</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>37</v>
@@ -29499,7 +29503,7 @@
         <v>37</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>35</v>
@@ -29508,7 +29512,7 @@
         <v>46</v>
       </c>
       <c r="AI222" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AJ222" t="s" s="2">
         <v>58</v>
@@ -29520,21 +29524,21 @@
         <v>37</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO222" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -29560,16 +29564,16 @@
         <v>66</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="O223" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>37</v>
@@ -29618,7 +29622,7 @@
         <v>37</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>35</v>
@@ -29639,21 +29643,21 @@
         <v>37</v>
       </c>
       <c r="AM223" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AN223" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO223" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29676,16 +29680,16 @@
         <v>37</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -29735,7 +29739,7 @@
         <v>37</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>35</v>
@@ -29753,10 +29757,10 @@
         <v>37</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="AM224" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AN224" t="s" s="2">
         <v>37</v>
@@ -29767,10 +29771,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29882,10 +29886,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29999,10 +30003,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30025,19 +30029,19 @@
         <v>47</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>37</v>
@@ -30086,7 +30090,7 @@
         <v>37</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>35</v>
@@ -30107,21 +30111,21 @@
         <v>37</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AN227" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO227" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30147,20 +30151,20 @@
         <v>66</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="P228" t="s" s="2">
         <v>37</v>
       </c>
       <c r="Q228" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="R228" t="s" s="2">
         <v>37</v>
@@ -30184,10 +30188,10 @@
         <v>138</v>
       </c>
       <c r="Y228" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="Z228" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="AA228" t="s" s="2">
         <v>37</v>
@@ -30205,7 +30209,7 @@
         <v>37</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>35</v>
@@ -30226,21 +30230,21 @@
         <v>37</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="AN228" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO228" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -30266,14 +30270,14 @@
         <v>123</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>37</v>
@@ -30322,7 +30326,7 @@
         <v>37</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>35</v>
@@ -30343,21 +30347,21 @@
         <v>37</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="AN229" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO229" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30383,14 +30387,14 @@
         <v>60</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>37</v>
@@ -30439,7 +30443,7 @@
         <v>37</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>35</v>
@@ -30448,7 +30452,7 @@
         <v>46</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AJ230" t="s" s="2">
         <v>58</v>
@@ -30460,21 +30464,21 @@
         <v>37</v>
       </c>
       <c r="AM230" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AN230" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO230" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -30500,16 +30504,16 @@
         <v>66</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="O231" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>37</v>
@@ -30538,7 +30542,7 @@
       </c>
       <c r="Y231" s="2"/>
       <c r="Z231" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="AA231" t="s" s="2">
         <v>37</v>
@@ -30556,7 +30560,7 @@
         <v>37</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>35</v>
@@ -30577,21 +30581,21 @@
         <v>37</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="AN231" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO231" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30617,13 +30621,13 @@
         <v>238</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
@@ -30673,7 +30677,7 @@
         <v>37</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>35</v>
@@ -30694,7 +30698,7 @@
         <v>37</v>
       </c>
       <c r="AM232" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="AN232" t="s" s="2">
         <v>466</v>
@@ -30705,10 +30709,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30820,10 +30824,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -30937,10 +30941,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -30966,10 +30970,10 @@
         <v>123</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="N235" t="s" s="2">
         <v>250</v>
@@ -31054,10 +31058,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -31171,10 +31175,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31288,10 +31292,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31317,7 +31321,7 @@
         <v>123</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="M238" t="s" s="2">
         <v>390</v>
@@ -31405,10 +31409,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -31431,13 +31435,13 @@
         <v>37</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -31488,7 +31492,7 @@
         <v>37</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>35</v>
@@ -31506,10 +31510,10 @@
         <v>37</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AM239" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AN239" t="s" s="2">
         <v>37</v>
@@ -31520,10 +31524,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -31635,10 +31639,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -31752,10 +31756,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -31871,10 +31875,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -31897,16 +31901,16 @@
         <v>37</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="O243" s="2"/>
       <c r="P243" t="s" s="2">
@@ -31935,10 +31939,10 @@
         <v>284</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="Z243" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="AA243" t="s" s="2">
         <v>37</v>
@@ -31956,7 +31960,7 @@
         <v>37</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>46</v>
@@ -31974,24 +31978,24 @@
         <v>37</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="AM243" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="AN243" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO243" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -32017,10 +32021,10 @@
         <v>144</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -32050,10 +32054,10 @@
         <v>284</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Z244" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AA244" t="s" s="2">
         <v>37</v>
@@ -32071,7 +32075,7 @@
         <v>37</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>35</v>
@@ -32089,24 +32093,24 @@
         <v>37</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AM244" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="AN244" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO244" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32129,13 +32133,13 @@
         <v>37</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
@@ -32186,7 +32190,7 @@
         <v>37</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>35</v>
@@ -32201,13 +32205,13 @@
         <v>58</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AL245" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="AM245" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="AN245" t="s" s="2">
         <v>37</v>
@@ -32218,10 +32222,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32333,10 +32337,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -32450,10 +32454,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -32479,10 +32483,10 @@
         <v>123</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="N248" t="s" s="2">
         <v>250</v>
@@ -32567,10 +32571,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -32684,10 +32688,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -32801,10 +32805,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -32830,7 +32834,7 @@
         <v>123</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="M251" t="s" s="2">
         <v>390</v>
@@ -32918,14 +32922,14 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" t="s" s="2">
@@ -32944,16 +32948,16 @@
         <v>37</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="O252" s="2"/>
       <c r="P252" t="s" s="2">
@@ -33003,7 +33007,7 @@
         <v>37</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>35</v>
@@ -33024,7 +33028,7 @@
         <v>37</v>
       </c>
       <c r="AM252" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="AN252" t="s" s="2">
         <v>37</v>
@@ -33035,10 +33039,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -33061,16 +33065,16 @@
         <v>37</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="O253" s="2"/>
       <c r="P253" t="s" s="2">
@@ -33120,7 +33124,7 @@
         <v>37</v>
       </c>
       <c r="AF253" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="AG253" t="s" s="2">
         <v>35</v>
@@ -33135,13 +33139,13 @@
         <v>58</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="AL253" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM253" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="AN253" t="s" s="2">
         <v>37</v>

--- a/output/StructureDefinition-RecetaPrescripcionCl.xlsx
+++ b/output/StructureDefinition-RecetaPrescripcionCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T15:26:19-03:00</t>
+    <t>2023-09-06T23:59:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-RecetaPrescripcionCl.xlsx
+++ b/output/StructureDefinition-RecetaPrescripcionCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T17:23:51-03:00</t>
+    <t>2023-11-03T17:06:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-RecetaPrescripcionCl.xlsx
+++ b/output/StructureDefinition-RecetaPrescripcionCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T18:47:13-03:00</t>
+    <t>2023-12-28T19:04:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1375,7 +1375,7 @@
     <t>MedicationRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl)
 </t>
   </si>
   <si>
@@ -1507,7 +1507,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl)
 </t>
   </si>
   <si>
